--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_25_18.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_25_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-130184.6677313221</v>
+        <v>-132747.1566085448</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673424</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>370.8194726552472</v>
+        <v>370.8194726552475</v>
       </c>
       <c r="C11" t="n">
-        <v>353.3585227627742</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>342.7686726124496</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>370.0160010640284</v>
+        <v>230.6573953298331</v>
       </c>
       <c r="F11" t="n">
-        <v>394.9616767334781</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>399.0073566452201</v>
+        <v>399.0073566452203</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>282.6933953790873</v>
       </c>
       <c r="I11" t="n">
-        <v>29.6625607646926</v>
+        <v>29.66256076469284</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>97.2733927799427</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>192.003601131387</v>
       </c>
       <c r="U11" t="n">
-        <v>233.7682035692713</v>
+        <v>239.0808029506688</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>315.8378894619018</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>337.3265997091799</v>
       </c>
       <c r="X11" t="n">
-        <v>357.8167316702357</v>
+        <v>357.8167316702359</v>
       </c>
       <c r="Y11" t="n">
-        <v>374.3235696478202</v>
+        <v>374.3235696478205</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1503,7 +1503,7 @@
         <v>190.7165703189231</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7871683969284</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>167.9176111737042</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>155.3324520903947</v>
       </c>
       <c r="D13" t="n">
-        <v>136.701104009979</v>
+        <v>17.25854843825817</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,10 +1540,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>154.1114392507949</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>49.69606844158613</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>177.8546563232085</v>
+        <v>177.8546563232088</v>
       </c>
       <c r="T13" t="n">
-        <v>207.6345802679359</v>
+        <v>207.6345802679361</v>
       </c>
       <c r="U13" t="n">
-        <v>274.2974691973795</v>
+        <v>274.2974691973798</v>
       </c>
       <c r="V13" t="n">
-        <v>240.2232743155947</v>
+        <v>240.2232743155949</v>
       </c>
       <c r="W13" t="n">
-        <v>274.6086293283577</v>
+        <v>274.6086293283579</v>
       </c>
       <c r="X13" t="n">
-        <v>213.7952863808038</v>
+        <v>213.795286380804</v>
       </c>
       <c r="Y13" t="n">
-        <v>206.6702843438615</v>
+        <v>206.6702843438617</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>370.8194726552473</v>
+        <v>370.8194726552474</v>
       </c>
       <c r="C14" t="n">
-        <v>353.3585227627743</v>
+        <v>353.3585227627744</v>
       </c>
       <c r="D14" t="n">
-        <v>8.542394695486735</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>370.0160010640285</v>
+        <v>251.6224422148799</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>399.0073566452202</v>
+        <v>399.0073566452203</v>
       </c>
       <c r="H14" t="n">
-        <v>282.6933953790872</v>
+        <v>282.6933953790873</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>29.66256076469276</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>97.27339277994264</v>
       </c>
       <c r="T14" t="n">
         <v>192.0036011313869</v>
       </c>
       <c r="U14" t="n">
-        <v>239.0808029506687</v>
+        <v>239.0808029506688</v>
       </c>
       <c r="V14" t="n">
-        <v>315.8378894619016</v>
+        <v>315.8378894619017</v>
       </c>
       <c r="W14" t="n">
-        <v>337.3265997091797</v>
+        <v>337.3265997091798</v>
       </c>
       <c r="X14" t="n">
-        <v>357.8167316702358</v>
+        <v>357.8167316702359</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.8172186824763</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>167.9176111737041</v>
       </c>
       <c r="C16" t="n">
         <v>155.3324520903946</v>
@@ -1771,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>52.33551370587659</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>132.8406459060875</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>17.25854843825927</v>
       </c>
       <c r="S16" t="n">
-        <v>177.8546563232086</v>
+        <v>177.8546563232087</v>
       </c>
       <c r="T16" t="n">
-        <v>207.6345802679359</v>
+        <v>207.634580267936</v>
       </c>
       <c r="U16" t="n">
-        <v>274.2974691973796</v>
+        <v>274.2974691973797</v>
       </c>
       <c r="V16" t="n">
-        <v>240.2232743155947</v>
+        <v>240.2232743155948</v>
       </c>
       <c r="W16" t="n">
-        <v>274.6086293283577</v>
+        <v>274.6086293283578</v>
       </c>
       <c r="X16" t="n">
-        <v>213.7952863808039</v>
+        <v>213.795286380804</v>
       </c>
       <c r="Y16" t="n">
-        <v>206.6702843438615</v>
+        <v>206.6702843438616</v>
       </c>
     </row>
     <row r="17">
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>11.5030415600709</v>
+        <v>11.50304156007088</v>
       </c>
       <c r="T17" t="n">
         <v>106.2332499115152</v>
       </c>
       <c r="U17" t="n">
-        <v>153.3104517307963</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V17" t="n">
         <v>230.06753824203</v>
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851095</v>
       </c>
       <c r="I18" t="n">
-        <v>18.8172186824763</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>92.08430510333696</v>
+        <v>92.08430510333694</v>
       </c>
       <c r="T19" t="n">
         <v>121.8642290480643</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>11.5030415600709</v>
+        <v>11.50304156007088</v>
       </c>
       <c r="T20" t="n">
         <v>106.2332499115152</v>
@@ -2169,16 +2169,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933827</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>92.08430510333696</v>
+        <v>92.08430510333694</v>
       </c>
       <c r="T22" t="n">
         <v>121.8642290480643</v>
@@ -2403,7 +2403,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554007</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -2415,7 +2415,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2552,25 +2552,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>296.9634904436089</v>
+        <v>296.9634904436087</v>
       </c>
       <c r="C26" t="n">
-        <v>279.5025405511359</v>
+        <v>279.5025405511357</v>
       </c>
       <c r="D26" t="n">
-        <v>268.9126904008113</v>
+        <v>268.9126904008111</v>
       </c>
       <c r="E26" t="n">
-        <v>296.1600188523901</v>
+        <v>296.16001885239</v>
       </c>
       <c r="F26" t="n">
-        <v>321.1056945218398</v>
+        <v>321.1056945218396</v>
       </c>
       <c r="G26" t="n">
-        <v>325.1513744335818</v>
+        <v>325.1513744335816</v>
       </c>
       <c r="H26" t="n">
-        <v>208.8374131674488</v>
+        <v>208.8374131674486</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>23.41741056830416</v>
+        <v>23.41741056830401</v>
       </c>
       <c r="T26" t="n">
-        <v>118.1476189197485</v>
+        <v>118.1476189197483</v>
       </c>
       <c r="U26" t="n">
-        <v>165.2248207390303</v>
+        <v>165.2248207390302</v>
       </c>
       <c r="V26" t="n">
-        <v>241.9819072502632</v>
+        <v>241.9819072502631</v>
       </c>
       <c r="W26" t="n">
-        <v>263.4706174975414</v>
+        <v>263.4706174975412</v>
       </c>
       <c r="X26" t="n">
-        <v>283.9607494585974</v>
+        <v>283.9607494585972</v>
       </c>
       <c r="Y26" t="n">
-        <v>300.4675874361819</v>
+        <v>300.4675874361818</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2652,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247738</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>94.06162896206563</v>
+        <v>94.06162896206547</v>
       </c>
       <c r="C28" t="n">
-        <v>81.47646987875616</v>
+        <v>81.47646987875601</v>
       </c>
       <c r="D28" t="n">
-        <v>62.84512179834068</v>
+        <v>62.84512179834053</v>
       </c>
       <c r="E28" t="n">
-        <v>60.6636114266975</v>
+        <v>60.66361142669734</v>
       </c>
       <c r="F28" t="n">
-        <v>59.65069680305957</v>
+        <v>59.65069680305942</v>
       </c>
       <c r="G28" t="n">
-        <v>80.25545703915655</v>
+        <v>80.2554570391564</v>
       </c>
       <c r="H28" t="n">
-        <v>58.98466369444911</v>
+        <v>58.98466369444895</v>
       </c>
       <c r="I28" t="n">
-        <v>10.58206918996643</v>
+        <v>10.58206918996627</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>3.161801450175659</v>
+        <v>3.161801450175503</v>
       </c>
       <c r="S28" t="n">
-        <v>103.9986741115702</v>
+        <v>103.9986741115701</v>
       </c>
       <c r="T28" t="n">
-        <v>133.7785980562975</v>
+        <v>133.7785980562974</v>
       </c>
       <c r="U28" t="n">
-        <v>200.4414869857412</v>
+        <v>200.441486985741</v>
       </c>
       <c r="V28" t="n">
-        <v>166.3672921039563</v>
+        <v>166.3672921039562</v>
       </c>
       <c r="W28" t="n">
-        <v>200.7526471167193</v>
+        <v>200.7526471167192</v>
       </c>
       <c r="X28" t="n">
-        <v>139.9393041691655</v>
+        <v>139.9393041691653</v>
       </c>
       <c r="Y28" t="n">
-        <v>132.8143021322231</v>
+        <v>132.814302132223</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>296.9634904436089</v>
+        <v>296.9634904436088</v>
       </c>
       <c r="C29" t="n">
         <v>279.5025405511358</v>
@@ -2798,7 +2798,7 @@
         <v>268.9126904008112</v>
       </c>
       <c r="E29" t="n">
-        <v>296.1600188523901</v>
+        <v>296.16001885239</v>
       </c>
       <c r="F29" t="n">
         <v>321.1056945218397</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>23.41741056830409</v>
+        <v>23.41741056830404</v>
       </c>
       <c r="T29" t="n">
         <v>118.1476189197484</v>
@@ -2849,10 +2849,10 @@
         <v>165.2248207390302</v>
       </c>
       <c r="V29" t="n">
-        <v>241.9819072502632</v>
+        <v>241.9819072502631</v>
       </c>
       <c r="W29" t="n">
-        <v>263.4706174975413</v>
+        <v>263.4706174975412</v>
       </c>
       <c r="X29" t="n">
         <v>283.9607494585973</v>
@@ -2877,7 +2877,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554008</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -2889,7 +2889,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,10 +2916,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S30" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T30" t="n">
         <v>190.7165703189231</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>94.06162896206556</v>
+        <v>94.06162896206553</v>
       </c>
       <c r="C31" t="n">
-        <v>81.47646987875609</v>
+        <v>81.47646987875606</v>
       </c>
       <c r="D31" t="n">
-        <v>62.84512179834061</v>
+        <v>62.84512179834059</v>
       </c>
       <c r="E31" t="n">
-        <v>60.66361142669743</v>
+        <v>60.6636114266974</v>
       </c>
       <c r="F31" t="n">
-        <v>59.6506968030595</v>
+        <v>59.65069680305947</v>
       </c>
       <c r="G31" t="n">
-        <v>80.25545703915648</v>
+        <v>80.25545703915645</v>
       </c>
       <c r="H31" t="n">
-        <v>58.98466369444904</v>
+        <v>58.98466369444901</v>
       </c>
       <c r="I31" t="n">
-        <v>10.58206918996635</v>
+        <v>10.58206918996631</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,22 +2995,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>3.161801450175588</v>
+        <v>3.161801450175545</v>
       </c>
       <c r="S31" t="n">
-        <v>103.9986741115702</v>
+        <v>103.9986741115701</v>
       </c>
       <c r="T31" t="n">
-        <v>133.7785980562975</v>
+        <v>133.7785980562974</v>
       </c>
       <c r="U31" t="n">
         <v>200.4414869857411</v>
       </c>
       <c r="V31" t="n">
-        <v>166.3672921039563</v>
+        <v>166.3672921039562</v>
       </c>
       <c r="W31" t="n">
-        <v>200.7526471167193</v>
+        <v>200.7526471167192</v>
       </c>
       <c r="X31" t="n">
         <v>139.9393041691654</v>
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>296.9634904436089</v>
+        <v>296.9634904436088</v>
       </c>
       <c r="C32" t="n">
-        <v>279.5025405511359</v>
+        <v>279.5025405511358</v>
       </c>
       <c r="D32" t="n">
-        <v>268.9126904008113</v>
+        <v>268.9126904008112</v>
       </c>
       <c r="E32" t="n">
-        <v>296.1600188523901</v>
+        <v>296.16001885239</v>
       </c>
       <c r="F32" t="n">
-        <v>321.1056945218398</v>
+        <v>321.1056945218397</v>
       </c>
       <c r="G32" t="n">
-        <v>325.1513744335818</v>
+        <v>325.1513744335817</v>
       </c>
       <c r="H32" t="n">
-        <v>208.8374131674488</v>
+        <v>208.8374131674487</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>23.41741056830419</v>
+        <v>23.41741056830405</v>
       </c>
       <c r="T32" t="n">
-        <v>118.1476189197485</v>
+        <v>118.1476189197484</v>
       </c>
       <c r="U32" t="n">
-        <v>165.2248207390303</v>
+        <v>165.2248207390302</v>
       </c>
       <c r="V32" t="n">
-        <v>241.9819072502632</v>
+        <v>241.9819072502631</v>
       </c>
       <c r="W32" t="n">
-        <v>263.4706174975414</v>
+        <v>263.4706174975412</v>
       </c>
       <c r="X32" t="n">
-        <v>283.9607494585974</v>
+        <v>283.9607494585973</v>
       </c>
       <c r="Y32" t="n">
-        <v>300.4675874361819</v>
+        <v>300.4675874361818</v>
       </c>
     </row>
     <row r="33">
@@ -3120,10 +3120,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>134.999469165708</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851112</v>
       </c>
       <c r="I33" t="n">
         <v>18.81721868247742</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>94.06162896206565</v>
+        <v>94.06162896206551</v>
       </c>
       <c r="C34" t="n">
-        <v>81.47646987875619</v>
+        <v>81.47646987875605</v>
       </c>
       <c r="D34" t="n">
-        <v>62.84512179834071</v>
+        <v>62.84512179834057</v>
       </c>
       <c r="E34" t="n">
-        <v>60.66361142669753</v>
+        <v>60.66361142669739</v>
       </c>
       <c r="F34" t="n">
-        <v>59.6506968030596</v>
+        <v>59.65069680305946</v>
       </c>
       <c r="G34" t="n">
-        <v>80.25545703915658</v>
+        <v>80.25545703915644</v>
       </c>
       <c r="H34" t="n">
-        <v>58.98466369444914</v>
+        <v>58.984663694449</v>
       </c>
       <c r="I34" t="n">
-        <v>10.58206918996645</v>
+        <v>10.58206918996631</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>3.161801450175687</v>
+        <v>3.161801450175545</v>
       </c>
       <c r="S34" t="n">
-        <v>103.9986741115702</v>
+        <v>103.9986741115701</v>
       </c>
       <c r="T34" t="n">
-        <v>133.7785980562975</v>
+        <v>133.7785980562974</v>
       </c>
       <c r="U34" t="n">
-        <v>200.4414869857412</v>
+        <v>200.4414869857411</v>
       </c>
       <c r="V34" t="n">
-        <v>166.3672921039563</v>
+        <v>166.3672921039562</v>
       </c>
       <c r="W34" t="n">
-        <v>200.7526471167193</v>
+        <v>200.7526471167192</v>
       </c>
       <c r="X34" t="n">
-        <v>139.9393041691655</v>
+        <v>139.9393041691654</v>
       </c>
       <c r="Y34" t="n">
-        <v>132.8143021322231</v>
+        <v>132.814302132223</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3266,7 @@
         <v>285.0491214353756</v>
       </c>
       <c r="C35" t="n">
-        <v>267.5881715429025</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D35" t="n">
         <v>256.998321392578</v>
@@ -3275,13 +3275,13 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F35" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G35" t="n">
         <v>313.2370054253485</v>
       </c>
       <c r="H35" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007081</v>
+        <v>11.50304156007088</v>
       </c>
       <c r="T35" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U35" t="n">
         <v>153.310451730797</v>
       </c>
       <c r="V35" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W35" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X35" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y35" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="36">
@@ -3405,7 +3405,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>251.6949831609193</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.14725995383228</v>
+        <v>82.14725995383235</v>
       </c>
       <c r="C37" t="n">
-        <v>69.56210087052281</v>
+        <v>69.56210087052288</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010733</v>
+        <v>50.93075279010741</v>
       </c>
       <c r="E37" t="n">
-        <v>48.74924241846415</v>
+        <v>48.74924241846422</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482622</v>
+        <v>47.73632779482629</v>
       </c>
       <c r="G37" t="n">
-        <v>68.3410880309232</v>
+        <v>68.34108803092327</v>
       </c>
       <c r="H37" t="n">
-        <v>47.07029468621576</v>
+        <v>47.07029468621583</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,22 +3472,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>92.08430510333687</v>
+        <v>92.08430510333694</v>
       </c>
       <c r="T37" t="n">
-        <v>121.8642290480642</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U37" t="n">
-        <v>188.5271179775078</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V37" t="n">
-        <v>154.452923095723</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W37" t="n">
-        <v>188.838278108486</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X37" t="n">
-        <v>128.0249351609321</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y37" t="n">
         <v>120.8999331239898</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007083</v>
+        <v>11.50304156007087</v>
       </c>
       <c r="T38" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U38" t="n">
         <v>153.310451730797</v>
@@ -3569,7 +3569,7 @@
         <v>272.046380450364</v>
       </c>
       <c r="Y38" t="n">
-        <v>288.5532184279486</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="39">
@@ -3597,7 +3597,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851098</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
         <v>18.81721868247742</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383229</v>
+        <v>82.14725995383233</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052283</v>
+        <v>69.56210087052287</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010735</v>
+        <v>50.93075279010739</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846416</v>
+        <v>48.74924241846421</v>
       </c>
       <c r="F40" t="n">
-        <v>47.73632779482624</v>
+        <v>47.73632779482628</v>
       </c>
       <c r="G40" t="n">
-        <v>68.34108803092322</v>
+        <v>68.34108803092326</v>
       </c>
       <c r="H40" t="n">
-        <v>47.07029468621577</v>
+        <v>47.07029468621582</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>92.08430510333689</v>
+        <v>92.08430510333693</v>
       </c>
       <c r="T40" t="n">
         <v>121.8642290480642</v>
@@ -3749,7 +3749,7 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F41" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G41" t="n">
         <v>313.2370054253485</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.5030415600709</v>
+        <v>11.50304156007087</v>
       </c>
       <c r="T41" t="n">
         <v>106.2332499115152</v>
@@ -3797,13 +3797,13 @@
         <v>153.310451730797</v>
       </c>
       <c r="V41" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W41" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X41" t="n">
-        <v>272.0463804503641</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y41" t="n">
         <v>288.5532184279487</v>
@@ -3825,7 +3825,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>157.6450804554007</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -3837,7 +3837,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.14725995383236</v>
+        <v>82.14725995383233</v>
       </c>
       <c r="C43" t="n">
-        <v>69.5621008705229</v>
+        <v>69.56210087052287</v>
       </c>
       <c r="D43" t="n">
-        <v>50.93075279010742</v>
+        <v>50.93075279010739</v>
       </c>
       <c r="E43" t="n">
-        <v>48.74924241846423</v>
+        <v>48.74924241846421</v>
       </c>
       <c r="F43" t="n">
-        <v>47.73632779482631</v>
+        <v>47.73632779482628</v>
       </c>
       <c r="G43" t="n">
-        <v>68.34108803092329</v>
+        <v>68.34108803092326</v>
       </c>
       <c r="H43" t="n">
-        <v>47.07029468621585</v>
+        <v>47.07029468621582</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>92.08430510333696</v>
+        <v>92.08430510333693</v>
       </c>
       <c r="T43" t="n">
-        <v>121.8642290480643</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U43" t="n">
         <v>188.5271179775079</v>
       </c>
       <c r="V43" t="n">
-        <v>154.4529230957231</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W43" t="n">
-        <v>188.8382781084861</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X43" t="n">
         <v>128.0249351609322</v>
       </c>
       <c r="Y43" t="n">
-        <v>120.8999331239899</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="44">
@@ -3986,7 +3986,7 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F44" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136062</v>
       </c>
       <c r="G44" t="n">
         <v>313.2370054253485</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.5030415600709</v>
+        <v>11.50304156007087</v>
       </c>
       <c r="T44" t="n">
         <v>106.2332499115152</v>
@@ -4034,13 +4034,13 @@
         <v>153.310451730797</v>
       </c>
       <c r="V44" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W44" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X44" t="n">
-        <v>272.0463804503641</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y44" t="n">
         <v>288.5532184279487</v>
@@ -4074,7 +4074,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4122,7 +4122,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773041</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.14725995383236</v>
+        <v>82.14725995383233</v>
       </c>
       <c r="C46" t="n">
-        <v>69.5621008705229</v>
+        <v>69.56210087052287</v>
       </c>
       <c r="D46" t="n">
-        <v>50.93075279010742</v>
+        <v>50.93075279010739</v>
       </c>
       <c r="E46" t="n">
-        <v>48.74924241846423</v>
+        <v>48.74924241846421</v>
       </c>
       <c r="F46" t="n">
-        <v>47.73632779482631</v>
+        <v>47.73632779482628</v>
       </c>
       <c r="G46" t="n">
-        <v>68.34108803092329</v>
+        <v>68.34108803092326</v>
       </c>
       <c r="H46" t="n">
-        <v>47.07029468621585</v>
+        <v>47.07029468621582</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>92.08430510333696</v>
+        <v>92.08430510333693</v>
       </c>
       <c r="T46" t="n">
-        <v>121.8642290480643</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U46" t="n">
         <v>188.5271179775079</v>
       </c>
       <c r="V46" t="n">
-        <v>154.4529230957231</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W46" t="n">
-        <v>188.8382781084861</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X46" t="n">
         <v>128.0249351609322</v>
       </c>
       <c r="Y46" t="n">
-        <v>120.8999331239899</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
   </sheetData>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1975.375541263136</v>
+        <v>1018.048185239086</v>
       </c>
       <c r="C11" t="n">
-        <v>1618.447740492657</v>
+        <v>1018.048185239086</v>
       </c>
       <c r="D11" t="n">
-        <v>1272.216758055839</v>
+        <v>1018.048185239086</v>
       </c>
       <c r="E11" t="n">
-        <v>898.4632216275273</v>
+        <v>785.0609172291536</v>
       </c>
       <c r="F11" t="n">
-        <v>499.5120330078524</v>
+        <v>785.0609172291536</v>
       </c>
       <c r="G11" t="n">
-        <v>96.47429902278201</v>
+        <v>382.0231832440825</v>
       </c>
       <c r="H11" t="n">
-        <v>96.47429902278201</v>
+        <v>96.47429902278226</v>
       </c>
       <c r="I11" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3227.349869306198</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609171</v>
+        <v>3033.406837860353</v>
       </c>
       <c r="U11" t="n">
-        <v>3089.476323054351</v>
+        <v>2791.911077304122</v>
       </c>
       <c r="V11" t="n">
-        <v>3089.476323054351</v>
+        <v>2472.882906130484</v>
       </c>
       <c r="W11" t="n">
-        <v>3089.476323054351</v>
+        <v>2132.148967030302</v>
       </c>
       <c r="X11" t="n">
-        <v>2728.045280963204</v>
+        <v>1770.717924939154</v>
       </c>
       <c r="Y11" t="n">
-        <v>2349.940665157325</v>
+        <v>1392.613309133275</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
@@ -5151,7 +5151,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5160,10 +5160,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>410.4602090608303</v>
+        <v>240.8464604005194</v>
       </c>
       <c r="C13" t="n">
-        <v>410.4602090608303</v>
+        <v>83.94499364254489</v>
       </c>
       <c r="D13" t="n">
-        <v>272.3782858184272</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E13" t="n">
-        <v>272.3782858184272</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F13" t="n">
-        <v>272.3782858184272</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G13" t="n">
-        <v>116.7101653630785</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H13" t="n">
         <v>66.51211643218342</v>
@@ -5197,52 +5197,52 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>123.4299741972698</v>
+        <v>123.4299741972697</v>
       </c>
       <c r="K13" t="n">
-        <v>339.2123824642971</v>
+        <v>339.2123824642969</v>
       </c>
       <c r="L13" t="n">
-        <v>667.5674062309442</v>
+        <v>667.5674062309438</v>
       </c>
       <c r="M13" t="n">
-        <v>1023.519677148644</v>
+        <v>1023.519677148643</v>
       </c>
       <c r="N13" t="n">
-        <v>1376.72327917266</v>
+        <v>1376.723279172659</v>
       </c>
       <c r="O13" t="n">
-        <v>1687.848103411224</v>
+        <v>1687.848103411223</v>
       </c>
       <c r="P13" t="n">
-        <v>1932.250829163034</v>
+        <v>1932.250829163033</v>
       </c>
       <c r="Q13" t="n">
-        <v>2021.6563506337</v>
+        <v>2021.656350633699</v>
       </c>
       <c r="R13" t="n">
-        <v>2021.6563506337</v>
+        <v>2021.656350633699</v>
       </c>
       <c r="S13" t="n">
-        <v>1842.00518263046</v>
+        <v>1842.005182630458</v>
       </c>
       <c r="T13" t="n">
-        <v>1632.273283369918</v>
+        <v>1632.273283369916</v>
       </c>
       <c r="U13" t="n">
-        <v>1355.205132665495</v>
+        <v>1355.205132665492</v>
       </c>
       <c r="V13" t="n">
-        <v>1112.55536062954</v>
+        <v>1112.555360629538</v>
       </c>
       <c r="W13" t="n">
-        <v>835.1729067625124</v>
+        <v>835.1729067625092</v>
       </c>
       <c r="X13" t="n">
-        <v>619.2180720344277</v>
+        <v>619.2180720344244</v>
       </c>
       <c r="Y13" t="n">
-        <v>410.4602090608303</v>
+        <v>410.4602090608266</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1494.408753347938</v>
+        <v>1396.152801044966</v>
       </c>
       <c r="C14" t="n">
-        <v>1137.480952577459</v>
+        <v>1039.225000274487</v>
       </c>
       <c r="D14" t="n">
-        <v>1128.852271066866</v>
+        <v>1039.225000274487</v>
       </c>
       <c r="E14" t="n">
-        <v>755.0987346385546</v>
+        <v>785.0609172291536</v>
       </c>
       <c r="F14" t="n">
-        <v>755.0987346385546</v>
+        <v>785.0609172291536</v>
       </c>
       <c r="G14" t="n">
-        <v>352.0610006534836</v>
+        <v>382.0231832440825</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>96.47429902278219</v>
       </c>
       <c r="I14" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>3227.349869306199</v>
       </c>
       <c r="T14" t="n">
-        <v>3131.662790163325</v>
+        <v>3033.406837860353</v>
       </c>
       <c r="U14" t="n">
-        <v>2890.167029607094</v>
+        <v>2791.911077304122</v>
       </c>
       <c r="V14" t="n">
-        <v>2571.138858433456</v>
+        <v>2472.882906130484</v>
       </c>
       <c r="W14" t="n">
-        <v>2230.404919333274</v>
+        <v>2132.148967030303</v>
       </c>
       <c r="X14" t="n">
-        <v>1868.973877242127</v>
+        <v>1770.717924939155</v>
       </c>
       <c r="Y14" t="n">
-        <v>1868.973877242127</v>
+        <v>1770.717924939155</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927768</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218342</v>
@@ -5358,10 +5358,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5373,31 +5373,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
         <v>1109.759191501176</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>410.460209060829</v>
+        <v>223.4135831901578</v>
       </c>
       <c r="C16" t="n">
-        <v>253.5587423028542</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D16" t="n">
-        <v>253.5587423028542</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E16" t="n">
-        <v>200.694587044393</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F16" t="n">
-        <v>200.694587044393</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G16" t="n">
-        <v>200.694587044393</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H16" t="n">
         <v>66.51211643218342</v>
@@ -5434,52 +5434,52 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>123.4299741972699</v>
+        <v>123.4299741972696</v>
       </c>
       <c r="K16" t="n">
-        <v>339.2123824642972</v>
+        <v>339.2123824642968</v>
       </c>
       <c r="L16" t="n">
-        <v>667.5674062309442</v>
+        <v>667.5674062309438</v>
       </c>
       <c r="M16" t="n">
         <v>1023.519677148644</v>
       </c>
       <c r="N16" t="n">
-        <v>1376.72327917266</v>
+        <v>1376.723279172659</v>
       </c>
       <c r="O16" t="n">
-        <v>1687.848103411224</v>
+        <v>1687.848103411223</v>
       </c>
       <c r="P16" t="n">
         <v>1932.250829163034</v>
       </c>
       <c r="Q16" t="n">
-        <v>2021.6563506337</v>
+        <v>2021.656350633699</v>
       </c>
       <c r="R16" t="n">
-        <v>2021.6563506337</v>
+        <v>2004.223473423336</v>
       </c>
       <c r="S16" t="n">
-        <v>1842.005182630459</v>
+        <v>1824.572305420095</v>
       </c>
       <c r="T16" t="n">
-        <v>1632.273283369917</v>
+        <v>1614.840406159554</v>
       </c>
       <c r="U16" t="n">
-        <v>1355.205132665494</v>
+        <v>1337.77225545513</v>
       </c>
       <c r="V16" t="n">
-        <v>1112.555360629539</v>
+        <v>1095.122483419176</v>
       </c>
       <c r="W16" t="n">
-        <v>835.1729067625113</v>
+        <v>817.7400295521473</v>
       </c>
       <c r="X16" t="n">
-        <v>619.2180720344265</v>
+        <v>601.7851948240625</v>
       </c>
       <c r="Y16" t="n">
-        <v>410.460209060829</v>
+        <v>393.027331850465</v>
       </c>
     </row>
     <row r="17">
@@ -5492,16 +5492,16 @@
         <v>1711.141932470374</v>
       </c>
       <c r="C17" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103806</v>
       </c>
       <c r="D17" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070899</v>
       </c>
       <c r="E17" t="n">
-        <v>894.1397680464972</v>
+        <v>894.1397680464979</v>
       </c>
       <c r="F17" t="n">
-        <v>581.825297830733</v>
+        <v>581.8252978307337</v>
       </c>
       <c r="G17" t="n">
         <v>265.4242822495729</v>
@@ -5513,52 +5513,52 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M17" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T17" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U17" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V17" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W17" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X17" t="n">
         <v>2290.538235362621</v>
       </c>
       <c r="Y17" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960653</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927768</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218342</v>
@@ -5595,10 +5595,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5610,31 +5610,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y18" t="n">
         <v>1109.759191501176</v>
@@ -5671,28 +5671,28 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>78.33486996962284</v>
+        <v>175.0427429954468</v>
       </c>
       <c r="K19" t="n">
         <v>273.3535972631171</v>
       </c>
       <c r="L19" t="n">
-        <v>525.7713142112982</v>
+        <v>525.7713142112983</v>
       </c>
       <c r="M19" t="n">
-        <v>789.9116685363199</v>
+        <v>789.91166853632</v>
       </c>
       <c r="N19" t="n">
-        <v>1057.928378591991</v>
+        <v>1057.928378591992</v>
       </c>
       <c r="O19" t="n">
         <v>1195.846727810181</v>
       </c>
       <c r="P19" t="n">
-        <v>1391.505603588763</v>
+        <v>1391.505603588764</v>
       </c>
       <c r="Q19" t="n">
-        <v>1489.975538818984</v>
+        <v>1481.310496936507</v>
       </c>
       <c r="R19" t="n">
         <v>1489.975538818984</v>
@@ -5735,10 +5735,10 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E20" t="n">
-        <v>894.1397680464968</v>
+        <v>894.1397680464975</v>
       </c>
       <c r="F20" t="n">
-        <v>581.8252978307326</v>
+        <v>581.8252978307335</v>
       </c>
       <c r="G20" t="n">
         <v>265.4242822495729</v>
@@ -5750,25 +5750,25 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810566</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
         <v>3266.588755052368</v>
@@ -5777,7 +5777,7 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T20" t="n">
         <v>3206.680274668175</v>
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218342</v>
@@ -5832,10 +5832,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5847,31 +5847,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y21" t="n">
         <v>1109.759191501176</v>
@@ -5905,22 +5905,22 @@
         <v>66.51211643218342</v>
       </c>
       <c r="I22" t="n">
-        <v>67.83109325226759</v>
+        <v>67.83109325226761</v>
       </c>
       <c r="J22" t="n">
-        <v>176.3617198155309</v>
+        <v>176.361719815531</v>
       </c>
       <c r="K22" t="n">
-        <v>371.3804471090252</v>
+        <v>350.2377232523201</v>
       </c>
       <c r="L22" t="n">
-        <v>527.0902910313823</v>
+        <v>602.6554402005012</v>
       </c>
       <c r="M22" t="n">
-        <v>694.5227723305801</v>
+        <v>866.7957945255229</v>
       </c>
       <c r="N22" t="n">
-        <v>962.5394823862514</v>
+        <v>1038.10463155537</v>
       </c>
       <c r="O22" t="n">
         <v>1176.02298077356</v>
@@ -5975,7 +5975,7 @@
         <v>894.1397680464979</v>
       </c>
       <c r="F23" t="n">
-        <v>581.8252978307341</v>
+        <v>581.8252978307337</v>
       </c>
       <c r="G23" t="n">
         <v>265.4242822495729</v>
@@ -6017,10 +6017,10 @@
         <v>3313.98658771011</v>
       </c>
       <c r="T23" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U23" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515856</v>
       </c>
       <c r="V23" t="n">
         <v>2819.429779746128</v>
@@ -6051,16 +6051,16 @@
         <v>618.1564155387301</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G24" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I24" t="n">
         <v>66.51211643218343</v>
@@ -6145,28 +6145,28 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J25" t="n">
-        <v>78.33486996962289</v>
+        <v>175.0427429954468</v>
       </c>
       <c r="K25" t="n">
-        <v>273.3535972631172</v>
+        <v>350.2377232523199</v>
       </c>
       <c r="L25" t="n">
-        <v>525.7713142112983</v>
+        <v>602.6554402005011</v>
       </c>
       <c r="M25" t="n">
-        <v>693.2037955104961</v>
+        <v>770.0879214996988</v>
       </c>
       <c r="N25" t="n">
-        <v>950.0618004120233</v>
+        <v>941.3967585295463</v>
       </c>
       <c r="O25" t="n">
-        <v>1184.688022656037</v>
+        <v>1176.02298077356</v>
       </c>
       <c r="P25" t="n">
-        <v>1380.34689843462</v>
+        <v>1371.681856552143</v>
       </c>
       <c r="Q25" t="n">
-        <v>1489.975538818984</v>
+        <v>1481.310496936507</v>
       </c>
       <c r="R25" t="n">
         <v>1489.975538818984</v>
@@ -6209,67 +6209,67 @@
         <v>1232.833941084894</v>
       </c>
       <c r="E26" t="n">
-        <v>933.682406890561</v>
+        <v>933.6824068905612</v>
       </c>
       <c r="F26" t="n">
-        <v>609.3332205048641</v>
+        <v>609.3332205048646</v>
       </c>
       <c r="G26" t="n">
-        <v>280.8974887537719</v>
+        <v>280.8974887537717</v>
       </c>
       <c r="H26" t="n">
-        <v>69.95060676644987</v>
+        <v>69.95060676644984</v>
       </c>
       <c r="I26" t="n">
-        <v>69.95060676644987</v>
+        <v>69.95060676644984</v>
       </c>
       <c r="J26" t="n">
-        <v>342.403116396858</v>
+        <v>342.4031163968567</v>
       </c>
       <c r="K26" t="n">
-        <v>676.2224900867045</v>
+        <v>676.2224900867031</v>
       </c>
       <c r="L26" t="n">
-        <v>1127.256703335113</v>
+        <v>1127.256703335112</v>
       </c>
       <c r="M26" t="n">
-        <v>1745.701255714711</v>
+        <v>1660.788608007037</v>
       </c>
       <c r="N26" t="n">
-        <v>2292.480072773493</v>
+        <v>2207.567425065819</v>
       </c>
       <c r="O26" t="n">
-        <v>2795.45254365283</v>
+        <v>2710.539895945156</v>
       </c>
       <c r="P26" t="n">
-        <v>3190.226910010008</v>
+        <v>3105.314262302334</v>
       </c>
       <c r="Q26" t="n">
-        <v>3438.513271765691</v>
+        <v>3353.600624058016</v>
       </c>
       <c r="R26" t="n">
-        <v>3497.530338322493</v>
+        <v>3497.530338322492</v>
       </c>
       <c r="S26" t="n">
-        <v>3473.876388253499</v>
+        <v>3473.876388253498</v>
       </c>
       <c r="T26" t="n">
-        <v>3354.535359041632</v>
+        <v>3354.535359041631</v>
       </c>
       <c r="U26" t="n">
-        <v>3187.641600719379</v>
+        <v>3187.641600719378</v>
       </c>
       <c r="V26" t="n">
         <v>2943.215431779719</v>
       </c>
       <c r="W26" t="n">
-        <v>2677.083494913516</v>
+        <v>2677.083494913515</v>
       </c>
       <c r="X26" t="n">
-        <v>2390.254455056347</v>
+        <v>2390.254455056346</v>
       </c>
       <c r="Y26" t="n">
-        <v>2086.751841484446</v>
+        <v>2086.751841484445</v>
       </c>
     </row>
     <row r="27">
@@ -6279,37 +6279,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>944.9823448153747</v>
+        <v>944.982344815375</v>
       </c>
       <c r="C27" t="n">
-        <v>770.5293155342478</v>
+        <v>770.529315534248</v>
       </c>
       <c r="D27" t="n">
-        <v>621.5949058729966</v>
+        <v>621.5949058729967</v>
       </c>
       <c r="E27" t="n">
-        <v>462.357450867541</v>
+        <v>462.3574508675412</v>
       </c>
       <c r="F27" t="n">
-        <v>315.8228928944261</v>
+        <v>315.8228928944262</v>
       </c>
       <c r="G27" t="n">
-        <v>179.4597927270444</v>
+        <v>179.4597927270443</v>
       </c>
       <c r="H27" t="n">
-        <v>88.95789836491191</v>
+        <v>88.95789836491184</v>
       </c>
       <c r="I27" t="n">
-        <v>69.95060676644987</v>
+        <v>69.95060676644984</v>
       </c>
       <c r="J27" t="n">
         <v>163.6278762570672</v>
       </c>
       <c r="K27" t="n">
-        <v>401.8920752374144</v>
+        <v>401.8920752374143</v>
       </c>
       <c r="L27" t="n">
-        <v>768.5902355500796</v>
+        <v>768.5902355500797</v>
       </c>
       <c r="M27" t="n">
         <v>1215.866560772396</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>488.5951419486984</v>
+        <v>488.5951419486973</v>
       </c>
       <c r="C28" t="n">
-        <v>406.2956774247023</v>
+        <v>406.2956774247014</v>
       </c>
       <c r="D28" t="n">
-        <v>342.8157564162773</v>
+        <v>342.8157564162765</v>
       </c>
       <c r="E28" t="n">
-        <v>281.539381237795</v>
+        <v>281.5393812377944</v>
       </c>
       <c r="F28" t="n">
-        <v>221.2861521437954</v>
+        <v>221.2861521437949</v>
       </c>
       <c r="G28" t="n">
-        <v>140.2200339224252</v>
+        <v>140.2200339224248</v>
       </c>
       <c r="H28" t="n">
-        <v>80.63956554419373</v>
+        <v>80.63956554419354</v>
       </c>
       <c r="I28" t="n">
-        <v>69.95060676644987</v>
+        <v>69.95060676644984</v>
       </c>
       <c r="J28" t="n">
-        <v>166.6860080115623</v>
+        <v>166.6860080115624</v>
       </c>
       <c r="K28" t="n">
-        <v>349.9095099869056</v>
+        <v>349.9095099869059</v>
       </c>
       <c r="L28" t="n">
-        <v>590.5320016169358</v>
+        <v>590.5320016169362</v>
       </c>
       <c r="M28" t="n">
-        <v>842.8771306238065</v>
+        <v>842.8771306238071</v>
       </c>
       <c r="N28" t="n">
-        <v>1171.254690696104</v>
+        <v>1171.254690696101</v>
       </c>
       <c r="O28" t="n">
-        <v>1394.085687621967</v>
+        <v>1394.085687621964</v>
       </c>
       <c r="P28" t="n">
-        <v>1577.949338082398</v>
+        <v>1577.949338082396</v>
       </c>
       <c r="Q28" t="n">
-        <v>1675.782753148612</v>
+        <v>1675.78275314861</v>
       </c>
       <c r="R28" t="n">
-        <v>1672.589014310051</v>
+        <v>1672.589014310048</v>
       </c>
       <c r="S28" t="n">
-        <v>1567.539848540788</v>
+        <v>1567.539848540786</v>
       </c>
       <c r="T28" t="n">
-        <v>1432.409951514225</v>
+        <v>1432.409951514223</v>
       </c>
       <c r="U28" t="n">
-        <v>1229.943803043779</v>
+        <v>1229.943803043777</v>
       </c>
       <c r="V28" t="n">
-        <v>1061.896033241803</v>
+        <v>1061.896033241801</v>
       </c>
       <c r="W28" t="n">
-        <v>859.1155816087532</v>
+        <v>859.1155816087517</v>
       </c>
       <c r="X28" t="n">
-        <v>717.7627491146467</v>
+        <v>717.7627491146452</v>
       </c>
       <c r="Y28" t="n">
-        <v>583.6068883750273</v>
+        <v>583.6068883750261</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1786.788719824235</v>
+        <v>1786.788719824234</v>
       </c>
       <c r="C29" t="n">
         <v>1504.462921287734</v>
@@ -6446,67 +6446,67 @@
         <v>1232.833941084894</v>
       </c>
       <c r="E29" t="n">
-        <v>933.6824068905611</v>
+        <v>933.6824068905607</v>
       </c>
       <c r="F29" t="n">
-        <v>609.3332205048644</v>
+        <v>609.3332205048641</v>
       </c>
       <c r="G29" t="n">
         <v>280.8974887537718</v>
       </c>
       <c r="H29" t="n">
-        <v>69.95060676644988</v>
+        <v>69.95060676644984</v>
       </c>
       <c r="I29" t="n">
-        <v>69.95060676644988</v>
+        <v>69.95060676644984</v>
       </c>
       <c r="J29" t="n">
-        <v>258.8297377254753</v>
+        <v>258.8297377254754</v>
       </c>
       <c r="K29" t="n">
-        <v>677.5617591229948</v>
+        <v>592.6491114153221</v>
       </c>
       <c r="L29" t="n">
-        <v>1128.595972371404</v>
+        <v>1127.256703335112</v>
       </c>
       <c r="M29" t="n">
-        <v>1662.127877043328</v>
+        <v>1660.788608007036</v>
       </c>
       <c r="N29" t="n">
-        <v>2208.906694102111</v>
+        <v>2207.567425065818</v>
       </c>
       <c r="O29" t="n">
-        <v>2711.879164981448</v>
+        <v>2710.539895945155</v>
       </c>
       <c r="P29" t="n">
-        <v>3190.226910010009</v>
+        <v>3105.314262302334</v>
       </c>
       <c r="Q29" t="n">
-        <v>3438.513271765691</v>
+        <v>3438.513271765689</v>
       </c>
       <c r="R29" t="n">
-        <v>3497.530338322494</v>
+        <v>3497.530338322492</v>
       </c>
       <c r="S29" t="n">
-        <v>3473.876388253499</v>
+        <v>3473.876388253498</v>
       </c>
       <c r="T29" t="n">
-        <v>3354.535359041632</v>
+        <v>3354.535359041631</v>
       </c>
       <c r="U29" t="n">
-        <v>3187.641600719379</v>
+        <v>3187.641600719378</v>
       </c>
       <c r="V29" t="n">
-        <v>2943.215431779719</v>
+        <v>2943.215431779718</v>
       </c>
       <c r="W29" t="n">
-        <v>2677.083494913516</v>
+        <v>2677.083494913515</v>
       </c>
       <c r="X29" t="n">
-        <v>2390.254455056347</v>
+        <v>2390.254455056346</v>
       </c>
       <c r="Y29" t="n">
-        <v>2086.751841484446</v>
+        <v>2086.751841484445</v>
       </c>
     </row>
     <row r="30">
@@ -6516,40 +6516,40 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>944.982344815375</v>
+        <v>944.9823448153752</v>
       </c>
       <c r="C30" t="n">
-        <v>770.529315534248</v>
+        <v>770.5293155342482</v>
       </c>
       <c r="D30" t="n">
-        <v>621.5949058729967</v>
+        <v>621.5949058729971</v>
       </c>
       <c r="E30" t="n">
-        <v>462.3574508675414</v>
+        <v>462.3574508675415</v>
       </c>
       <c r="F30" t="n">
-        <v>315.8228928944263</v>
+        <v>315.8228928944266</v>
       </c>
       <c r="G30" t="n">
-        <v>179.4597927270444</v>
+        <v>179.4597927270448</v>
       </c>
       <c r="H30" t="n">
-        <v>88.95789836491193</v>
+        <v>88.95789836491224</v>
       </c>
       <c r="I30" t="n">
-        <v>69.95060676644988</v>
+        <v>69.95060676644984</v>
       </c>
       <c r="J30" t="n">
-        <v>163.6278762570672</v>
+        <v>163.627876257067</v>
       </c>
       <c r="K30" t="n">
         <v>401.8920752374144</v>
       </c>
       <c r="L30" t="n">
-        <v>768.5902355500798</v>
+        <v>768.5902355500795</v>
       </c>
       <c r="M30" t="n">
-        <v>1215.866560772396</v>
+        <v>1215.866560772395</v>
       </c>
       <c r="N30" t="n">
         <v>1689.38960432685</v>
@@ -6570,13 +6570,13 @@
         <v>2438.909792953603</v>
       </c>
       <c r="T30" t="n">
-        <v>2246.266792631458</v>
+        <v>2246.266792631459</v>
       </c>
       <c r="U30" t="n">
         <v>2018.198945765874</v>
       </c>
       <c r="V30" t="n">
-        <v>1783.046837534131</v>
+        <v>1783.046837534132</v>
       </c>
       <c r="W30" t="n">
         <v>1528.80948080593</v>
@@ -6595,61 +6595,61 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>488.5951419486979</v>
+        <v>488.5951419486977</v>
       </c>
       <c r="C31" t="n">
-        <v>406.2956774247018</v>
+        <v>406.2956774247017</v>
       </c>
       <c r="D31" t="n">
-        <v>342.8157564162769</v>
+        <v>342.8157564162768</v>
       </c>
       <c r="E31" t="n">
-        <v>281.5393812377947</v>
+        <v>281.5393812377946</v>
       </c>
       <c r="F31" t="n">
-        <v>221.2861521437952</v>
+        <v>221.2861521437951</v>
       </c>
       <c r="G31" t="n">
-        <v>140.220033922425</v>
+        <v>140.2200339224249</v>
       </c>
       <c r="H31" t="n">
-        <v>80.63956554419367</v>
+        <v>80.63956554419359</v>
       </c>
       <c r="I31" t="n">
-        <v>69.95060676644988</v>
+        <v>69.95060676644984</v>
       </c>
       <c r="J31" t="n">
         <v>166.6860080115624</v>
       </c>
       <c r="K31" t="n">
-        <v>349.9095099869057</v>
+        <v>349.9095099869058</v>
       </c>
       <c r="L31" t="n">
-        <v>590.532001616936</v>
+        <v>590.5320016169362</v>
       </c>
       <c r="M31" t="n">
-        <v>842.8771306238068</v>
+        <v>842.8771306238071</v>
       </c>
       <c r="N31" t="n">
-        <v>1099.098615361327</v>
+        <v>1106.565161902128</v>
       </c>
       <c r="O31" t="n">
-        <v>1321.92961228719</v>
+        <v>1329.396158827991</v>
       </c>
       <c r="P31" t="n">
-        <v>1577.949338082397</v>
+        <v>1513.259809288423</v>
       </c>
       <c r="Q31" t="n">
-        <v>1675.782753148611</v>
+        <v>1675.78275314861</v>
       </c>
       <c r="R31" t="n">
-        <v>1672.58901431005</v>
+        <v>1672.589014310049</v>
       </c>
       <c r="S31" t="n">
-        <v>1567.539848540787</v>
+        <v>1567.539848540786</v>
       </c>
       <c r="T31" t="n">
-        <v>1432.409951514224</v>
+        <v>1432.409951514223</v>
       </c>
       <c r="U31" t="n">
         <v>1229.943803043778</v>
@@ -6658,13 +6658,13 @@
         <v>1061.896033241802</v>
       </c>
       <c r="W31" t="n">
-        <v>859.1155816087524</v>
+        <v>859.1155816087522</v>
       </c>
       <c r="X31" t="n">
-        <v>717.762749114646</v>
+        <v>717.7627491146458</v>
       </c>
       <c r="Y31" t="n">
-        <v>583.6068883750268</v>
+        <v>583.6068883750265</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1786.788719824236</v>
+        <v>1786.788719824234</v>
       </c>
       <c r="C32" t="n">
-        <v>1504.462921287735</v>
+        <v>1504.462921287734</v>
       </c>
       <c r="D32" t="n">
-        <v>1232.833941084895</v>
+        <v>1232.833941084894</v>
       </c>
       <c r="E32" t="n">
-        <v>933.6824068905614</v>
+        <v>933.6824068905607</v>
       </c>
       <c r="F32" t="n">
-        <v>609.3332205048646</v>
+        <v>609.3332205048641</v>
       </c>
       <c r="G32" t="n">
-        <v>280.8974887537719</v>
+        <v>280.8974887537718</v>
       </c>
       <c r="H32" t="n">
-        <v>69.95060676644988</v>
+        <v>69.95060676644984</v>
       </c>
       <c r="I32" t="n">
-        <v>113.7020939989261</v>
+        <v>113.7020939989262</v>
       </c>
       <c r="J32" t="n">
-        <v>302.5812249579516</v>
+        <v>302.5812249579517</v>
       </c>
       <c r="K32" t="n">
-        <v>636.400598647798</v>
+        <v>636.4005986477982</v>
       </c>
       <c r="L32" t="n">
         <v>1087.434811896207</v>
       </c>
       <c r="M32" t="n">
-        <v>1620.966716568131</v>
+        <v>1705.879364275805</v>
       </c>
       <c r="N32" t="n">
-        <v>2167.745533626914</v>
+        <v>2252.658181334587</v>
       </c>
       <c r="O32" t="n">
-        <v>2670.718004506251</v>
+        <v>2755.630652213924</v>
       </c>
       <c r="P32" t="n">
-        <v>3105.314262302336</v>
+        <v>3150.405018571102</v>
       </c>
       <c r="Q32" t="n">
-        <v>3353.600624058018</v>
+        <v>3438.513271765689</v>
       </c>
       <c r="R32" t="n">
-        <v>3497.530338322494</v>
+        <v>3497.530338322492</v>
       </c>
       <c r="S32" t="n">
-        <v>3473.876388253499</v>
+        <v>3473.876388253498</v>
       </c>
       <c r="T32" t="n">
-        <v>3354.535359041633</v>
+        <v>3354.535359041631</v>
       </c>
       <c r="U32" t="n">
-        <v>3187.64160071938</v>
+        <v>3187.641600719378</v>
       </c>
       <c r="V32" t="n">
-        <v>2943.21543177972</v>
+        <v>2943.215431779719</v>
       </c>
       <c r="W32" t="n">
-        <v>2677.083494913517</v>
+        <v>2677.083494913515</v>
       </c>
       <c r="X32" t="n">
-        <v>2390.254455056348</v>
+        <v>2390.254455056346</v>
       </c>
       <c r="Y32" t="n">
-        <v>2086.751841484447</v>
+        <v>2086.751841484445</v>
       </c>
     </row>
     <row r="33">
@@ -6768,22 +6768,22 @@
         <v>315.8228928944262</v>
       </c>
       <c r="G33" t="n">
-        <v>179.4597927270444</v>
+        <v>179.4597927270443</v>
       </c>
       <c r="H33" t="n">
-        <v>88.95789836491193</v>
+        <v>88.95789836491187</v>
       </c>
       <c r="I33" t="n">
-        <v>69.95060676644988</v>
+        <v>69.95060676644984</v>
       </c>
       <c r="J33" t="n">
         <v>163.6278762570672</v>
       </c>
       <c r="K33" t="n">
-        <v>401.8920752374144</v>
+        <v>401.8920752374143</v>
       </c>
       <c r="L33" t="n">
-        <v>768.5902355500798</v>
+        <v>768.5902355500797</v>
       </c>
       <c r="M33" t="n">
         <v>1215.866560772396</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>488.5951419486986</v>
+        <v>488.5951419486975</v>
       </c>
       <c r="C34" t="n">
-        <v>406.2956774247024</v>
+        <v>406.2956774247015</v>
       </c>
       <c r="D34" t="n">
-        <v>342.8157564162775</v>
+        <v>342.8157564162767</v>
       </c>
       <c r="E34" t="n">
-        <v>281.5393812377951</v>
+        <v>281.5393812377945</v>
       </c>
       <c r="F34" t="n">
-        <v>221.2861521437955</v>
+        <v>221.2861521437951</v>
       </c>
       <c r="G34" t="n">
-        <v>140.2200339224252</v>
+        <v>140.2200339224249</v>
       </c>
       <c r="H34" t="n">
-        <v>80.63956554419377</v>
+        <v>80.63956554419359</v>
       </c>
       <c r="I34" t="n">
-        <v>69.95060676644988</v>
+        <v>69.95060676644984</v>
       </c>
       <c r="J34" t="n">
-        <v>166.6860080115623</v>
+        <v>199.9858869210585</v>
       </c>
       <c r="K34" t="n">
-        <v>349.9095099869055</v>
+        <v>383.2093888964019</v>
       </c>
       <c r="L34" t="n">
-        <v>590.5320016169358</v>
+        <v>662.6880769517106</v>
       </c>
       <c r="M34" t="n">
-        <v>850.34367716461</v>
+        <v>915.0332059585814</v>
       </c>
       <c r="N34" t="n">
-        <v>1106.565161902131</v>
+        <v>1171.254690696102</v>
       </c>
       <c r="O34" t="n">
-        <v>1329.396158827993</v>
+        <v>1394.085687621965</v>
       </c>
       <c r="P34" t="n">
-        <v>1513.259809288425</v>
+        <v>1577.949338082396</v>
       </c>
       <c r="Q34" t="n">
-        <v>1675.782753148612</v>
+        <v>1675.78275314861</v>
       </c>
       <c r="R34" t="n">
-        <v>1672.589014310051</v>
+        <v>1672.589014310049</v>
       </c>
       <c r="S34" t="n">
-        <v>1567.539848540788</v>
+        <v>1567.539848540786</v>
       </c>
       <c r="T34" t="n">
-        <v>1432.409951514225</v>
+        <v>1432.409951514223</v>
       </c>
       <c r="U34" t="n">
-        <v>1229.943803043779</v>
+        <v>1229.943803043778</v>
       </c>
       <c r="V34" t="n">
-        <v>1061.896033241803</v>
+        <v>1061.896033241802</v>
       </c>
       <c r="W34" t="n">
-        <v>859.1155816087535</v>
+        <v>859.115581608752</v>
       </c>
       <c r="X34" t="n">
-        <v>717.7627491146469</v>
+        <v>717.7627491146455</v>
       </c>
       <c r="Y34" t="n">
-        <v>583.6068883750276</v>
+        <v>583.6068883750263</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C35" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103806</v>
       </c>
       <c r="D35" t="n">
         <v>1181.256586070898</v>
       </c>
       <c r="E35" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464977</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307335</v>
       </c>
       <c r="G35" t="n">
-        <v>265.4242822495727</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329466</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060173</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R35" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U35" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515856</v>
       </c>
       <c r="V35" t="n">
-        <v>2819.429779746126</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W35" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049858</v>
       </c>
       <c r="X35" t="n">
-        <v>2290.538235362619</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y35" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960653</v>
       </c>
     </row>
     <row r="36">
@@ -7005,22 +7005,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K36" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7047,7 +7047,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V36" t="n">
         <v>1779.608347199865</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>402.259395817092</v>
+        <v>402.2593958170925</v>
       </c>
       <c r="C37" t="n">
-        <v>331.9946474630285</v>
+        <v>331.9946474630289</v>
       </c>
       <c r="D37" t="n">
-        <v>280.5494426245363</v>
+        <v>280.5494426245366</v>
       </c>
       <c r="E37" t="n">
-        <v>231.3077836159866</v>
+        <v>231.3077836159869</v>
       </c>
       <c r="F37" t="n">
-        <v>183.0892706919198</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G37" t="n">
-        <v>114.0578686404822</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I37" t="n">
-        <v>67.83109325226768</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J37" t="n">
-        <v>176.3617198155311</v>
+        <v>175.0427429954468</v>
       </c>
       <c r="K37" t="n">
-        <v>274.6725740832015</v>
+        <v>370.0614702889411</v>
       </c>
       <c r="L37" t="n">
-        <v>527.0902910313828</v>
+        <v>525.7713142112984</v>
       </c>
       <c r="M37" t="n">
-        <v>791.2306453564046</v>
+        <v>789.9116685363201</v>
       </c>
       <c r="N37" t="n">
-        <v>962.5394823862521</v>
+        <v>961.2205055661676</v>
       </c>
       <c r="O37" t="n">
-        <v>1197.165704630266</v>
+        <v>1195.846727810181</v>
       </c>
       <c r="P37" t="n">
-        <v>1371.681856552141</v>
+        <v>1371.681856552143</v>
       </c>
       <c r="Q37" t="n">
-        <v>1481.310496936506</v>
+        <v>1481.310496936507</v>
       </c>
       <c r="R37" t="n">
-        <v>1489.975538818983</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="S37" t="n">
-        <v>1396.961089219653</v>
+        <v>1396.961089219654</v>
       </c>
       <c r="T37" t="n">
-        <v>1273.865908363022</v>
+        <v>1273.865908363023</v>
       </c>
       <c r="U37" t="n">
-        <v>1083.434476062509</v>
+        <v>1083.43447606251</v>
       </c>
       <c r="V37" t="n">
-        <v>927.4214224304659</v>
+        <v>927.4214224304668</v>
       </c>
       <c r="W37" t="n">
-        <v>736.6756869673487</v>
+        <v>736.6756869673495</v>
       </c>
       <c r="X37" t="n">
-        <v>607.3575706431749</v>
+        <v>607.3575706431756</v>
       </c>
       <c r="Y37" t="n">
-        <v>485.2364260734882</v>
+        <v>485.2364260734888</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C38" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103806</v>
       </c>
       <c r="D38" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070899</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464969</v>
+        <v>894.1397680464979</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307328</v>
+        <v>581.8252978307337</v>
       </c>
       <c r="G38" t="n">
-        <v>265.4242822495727</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3313.986587710108</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T38" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V38" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X38" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y38" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960653</v>
       </c>
     </row>
     <row r="39">
@@ -7227,37 +7227,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064542</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K39" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7284,7 +7284,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V39" t="n">
         <v>1779.608347199865</v>
@@ -7293,10 +7293,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>402.259395817092</v>
+        <v>402.2593958170923</v>
       </c>
       <c r="C40" t="n">
-        <v>331.9946474630286</v>
+        <v>331.9946474630288</v>
       </c>
       <c r="D40" t="n">
-        <v>280.5494426245363</v>
+        <v>280.5494426245365</v>
       </c>
       <c r="E40" t="n">
-        <v>231.3077836159867</v>
+        <v>231.3077836159868</v>
       </c>
       <c r="F40" t="n">
-        <v>183.0892706919198</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G40" t="n">
         <v>114.0578686404822</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I40" t="n">
         <v>67.83109325226764</v>
       </c>
       <c r="J40" t="n">
-        <v>176.361719815531</v>
+        <v>79.65384678970709</v>
       </c>
       <c r="K40" t="n">
-        <v>371.3804471090254</v>
+        <v>274.6725740832014</v>
       </c>
       <c r="L40" t="n">
-        <v>623.7981640572066</v>
+        <v>527.0902910313825</v>
       </c>
       <c r="M40" t="n">
-        <v>791.2306453564044</v>
+        <v>791.2306453564042</v>
       </c>
       <c r="N40" t="n">
-        <v>962.5394823862518</v>
+        <v>1059.247355412076</v>
       </c>
       <c r="O40" t="n">
-        <v>1184.688022656036</v>
+        <v>1197.165704630265</v>
       </c>
       <c r="P40" t="n">
-        <v>1380.346898434619</v>
+        <v>1371.681856552142</v>
       </c>
       <c r="Q40" t="n">
-        <v>1489.975538818983</v>
+        <v>1481.310496936507</v>
       </c>
       <c r="R40" t="n">
-        <v>1489.975538818983</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="S40" t="n">
-        <v>1396.961089219653</v>
+        <v>1396.961089219654</v>
       </c>
       <c r="T40" t="n">
         <v>1273.865908363023</v>
       </c>
       <c r="U40" t="n">
-        <v>1083.434476062509</v>
+        <v>1083.43447606251</v>
       </c>
       <c r="V40" t="n">
-        <v>927.421422430466</v>
+        <v>927.4214224304665</v>
       </c>
       <c r="W40" t="n">
-        <v>736.6756869673488</v>
+        <v>736.6756869673493</v>
       </c>
       <c r="X40" t="n">
-        <v>607.3575706431749</v>
+        <v>607.3575706431753</v>
       </c>
       <c r="Y40" t="n">
-        <v>485.2364260734882</v>
+        <v>485.2364260734886</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470375</v>
       </c>
       <c r="C41" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103806</v>
       </c>
       <c r="D41" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070899</v>
       </c>
       <c r="E41" t="n">
-        <v>894.1397680464975</v>
+        <v>894.1397680464986</v>
       </c>
       <c r="F41" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307346</v>
       </c>
       <c r="G41" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H41" t="n">
         <v>66.51211643218343</v>
@@ -7412,22 +7412,22 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
         <v>3266.588755052369</v>
@@ -7439,22 +7439,22 @@
         <v>3313.98658771011</v>
       </c>
       <c r="T41" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U41" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515856</v>
       </c>
       <c r="V41" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746129</v>
       </c>
       <c r="W41" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049858</v>
       </c>
       <c r="X41" t="n">
         <v>2290.538235362621</v>
       </c>
       <c r="Y41" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960653</v>
       </c>
     </row>
     <row r="42">
@@ -7473,16 +7473,16 @@
         <v>618.1564155387301</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
         <v>66.51211643218343</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>402.2593958170925</v>
+        <v>402.2593958170923</v>
       </c>
       <c r="C43" t="n">
-        <v>331.994647463029</v>
+        <v>331.9946474630288</v>
       </c>
       <c r="D43" t="n">
-        <v>280.5494426245367</v>
+        <v>280.5494426245365</v>
       </c>
       <c r="E43" t="n">
-        <v>231.3077836159869</v>
+        <v>231.3077836159868</v>
       </c>
       <c r="F43" t="n">
         <v>183.0892706919199</v>
       </c>
       <c r="G43" t="n">
-        <v>114.0578686404823</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H43" t="n">
         <v>66.51211643218343</v>
@@ -7567,25 +7567,25 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J43" t="n">
-        <v>155.2189959588259</v>
+        <v>175.0427429954468</v>
       </c>
       <c r="K43" t="n">
-        <v>350.2377232523202</v>
+        <v>350.2377232523195</v>
       </c>
       <c r="L43" t="n">
-        <v>602.6554402005013</v>
+        <v>602.6554402005007</v>
       </c>
       <c r="M43" t="n">
-        <v>866.795794525523</v>
+        <v>866.7957945255224</v>
       </c>
       <c r="N43" t="n">
-        <v>1134.812504581194</v>
+        <v>1038.10463155537</v>
       </c>
       <c r="O43" t="n">
         <v>1272.730853799384</v>
       </c>
       <c r="P43" t="n">
-        <v>1371.681856552143</v>
+        <v>1371.681856552142</v>
       </c>
       <c r="Q43" t="n">
         <v>1481.310496936507</v>
@@ -7603,16 +7603,16 @@
         <v>1083.43447606251</v>
       </c>
       <c r="V43" t="n">
-        <v>927.4214224304668</v>
+        <v>927.4214224304665</v>
       </c>
       <c r="W43" t="n">
-        <v>736.6756869673495</v>
+        <v>736.6756869673493</v>
       </c>
       <c r="X43" t="n">
-        <v>607.3575706431756</v>
+        <v>607.3575706431753</v>
       </c>
       <c r="Y43" t="n">
-        <v>485.2364260734889</v>
+        <v>485.2364260734886</v>
       </c>
     </row>
     <row r="44">
@@ -7631,43 +7631,43 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E44" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464968</v>
       </c>
       <c r="F44" t="n">
-        <v>581.8252978307328</v>
+        <v>581.8252978307329</v>
       </c>
       <c r="G44" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329466</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060173</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
         <v>3325.605821609171</v>
@@ -7676,22 +7676,22 @@
         <v>3313.98658771011</v>
       </c>
       <c r="T44" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U44" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V44" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W44" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X44" t="n">
         <v>2290.53823536262</v>
       </c>
       <c r="Y44" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="45">
@@ -7701,31 +7701,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
         <v>398.4535849031479</v>
@@ -7770,7 +7770,7 @@
         <v>1317.51949026613</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="46">
@@ -7780,52 +7780,52 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>402.2593958170925</v>
+        <v>402.2593958170923</v>
       </c>
       <c r="C46" t="n">
-        <v>331.994647463029</v>
+        <v>331.9946474630288</v>
       </c>
       <c r="D46" t="n">
-        <v>280.5494426245367</v>
+        <v>280.5494426245365</v>
       </c>
       <c r="E46" t="n">
-        <v>231.3077836159869</v>
+        <v>231.3077836159868</v>
       </c>
       <c r="F46" t="n">
         <v>183.0892706919199</v>
       </c>
       <c r="G46" t="n">
-        <v>114.0578686404823</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I46" t="n">
-        <v>67.83109325226761</v>
+        <v>67.83109325226762</v>
       </c>
       <c r="J46" t="n">
-        <v>79.65384678970706</v>
+        <v>176.361719815531</v>
       </c>
       <c r="K46" t="n">
-        <v>177.9647010573775</v>
+        <v>350.2377232523192</v>
       </c>
       <c r="L46" t="n">
-        <v>430.3824180055586</v>
+        <v>602.6554402005004</v>
       </c>
       <c r="M46" t="n">
-        <v>694.5227723305803</v>
+        <v>866.7957945255221</v>
       </c>
       <c r="N46" t="n">
-        <v>962.5394823862517</v>
+        <v>1134.812504581193</v>
       </c>
       <c r="O46" t="n">
-        <v>1197.165704630265</v>
+        <v>1272.730853799383</v>
       </c>
       <c r="P46" t="n">
-        <v>1392.824580408848</v>
+        <v>1468.389729577966</v>
       </c>
       <c r="Q46" t="n">
-        <v>1489.975538818984</v>
+        <v>1481.310496936507</v>
       </c>
       <c r="R46" t="n">
         <v>1489.975538818984</v>
@@ -7840,16 +7840,16 @@
         <v>1083.43447606251</v>
       </c>
       <c r="V46" t="n">
-        <v>927.4214224304668</v>
+        <v>927.4214224304665</v>
       </c>
       <c r="W46" t="n">
-        <v>736.6756869673495</v>
+        <v>736.6756869673493</v>
       </c>
       <c r="X46" t="n">
-        <v>607.3575706431756</v>
+        <v>607.3575706431753</v>
       </c>
       <c r="Y46" t="n">
-        <v>485.2364260734889</v>
+        <v>485.2364260734886</v>
       </c>
     </row>
   </sheetData>
@@ -10042,7 +10042,7 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>72.88492458058317</v>
+        <v>72.88492458057908</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -10279,16 +10279,16 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>7.541966202828519</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>72.88492458058138</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10504,16 +10504,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>39.24868325785695</v>
       </c>
       <c r="M34" t="n">
-        <v>7.541966202831759</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -10525,7 +10525,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.22461775697435</v>
+        <v>15.22461775697434</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23258,22 +23258,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>353.3585227627744</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>342.7686726124498</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>139.3586057341955</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>394.9616767334783</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>282.6933953790871</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,19 +23306,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.27339277994248</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>192.0036011313868</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>5.312599381397291</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>315.8378894619016</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>337.3265997091797</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>167.917611173704</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>155.3324520903945</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>119.4425555717211</v>
       </c>
       <c r="E13" t="n">
-        <v>134.5195936383358</v>
+        <v>134.5195936383361</v>
       </c>
       <c r="F13" t="n">
-        <v>133.5066790146979</v>
+        <v>133.5066790146981</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>154.1114392507951</v>
       </c>
       <c r="H13" t="n">
-        <v>83.14457746450131</v>
+        <v>132.8406459060876</v>
       </c>
       <c r="I13" t="n">
-        <v>84.43805140160474</v>
+        <v>84.43805140160495</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>77.01778366181398</v>
+        <v>77.01778366181421</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23498,13 +23498,13 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>334.2262779169629</v>
+        <v>342.7686726124498</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>118.3935588491487</v>
       </c>
       <c r="F14" t="n">
-        <v>394.9616767334782</v>
+        <v>394.9616767334783</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>29.6625607646927</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>97.27339277994257</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>374.3235696478203</v>
+        <v>374.3235696478204</v>
       </c>
     </row>
     <row r="15">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>167.917611173704</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>136.7011040099791</v>
+        <v>136.7011040099792</v>
       </c>
       <c r="E16" t="n">
-        <v>82.1840799324593</v>
+        <v>134.519593638336</v>
       </c>
       <c r="F16" t="n">
-        <v>133.506679014698</v>
+        <v>133.5066790146981</v>
       </c>
       <c r="G16" t="n">
-        <v>154.1114392507949</v>
+        <v>154.111439250795</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>132.8406459060876</v>
       </c>
       <c r="I16" t="n">
-        <v>84.43805140160484</v>
+        <v>84.43805140160489</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>77.01778366181406</v>
+        <v>59.7592352235547</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23786,7 +23786,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>7.389644451905042e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -25874,7 +25874,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>929196.8403902081</v>
+        <v>929196.8403902077</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>929196.8403902079</v>
+        <v>929196.8403902078</v>
       </c>
     </row>
     <row r="7">
@@ -26314,46 +26314,46 @@
         <v>368674.3524226673</v>
       </c>
       <c r="C2" t="n">
-        <v>368674.3524226671</v>
+        <v>368674.3524226673</v>
       </c>
       <c r="D2" t="n">
-        <v>368677.1506724044</v>
+        <v>368677.1506724043</v>
       </c>
       <c r="E2" t="n">
+        <v>316366.6988993885</v>
+      </c>
+      <c r="F2" t="n">
         <v>316366.6988993888</v>
       </c>
-      <c r="F2" t="n">
-        <v>316366.6988993887</v>
-      </c>
       <c r="G2" t="n">
-        <v>369468.7964389273</v>
+        <v>369468.7964389274</v>
       </c>
       <c r="H2" t="n">
-        <v>369468.7964389274</v>
+        <v>369468.7964389272</v>
       </c>
       <c r="I2" t="n">
-        <v>369468.7964389276</v>
+        <v>369468.7964389275</v>
       </c>
       <c r="J2" t="n">
         <v>369468.7964389278</v>
       </c>
       <c r="K2" t="n">
-        <v>369468.7964389278</v>
+        <v>369468.7964389279</v>
       </c>
       <c r="L2" t="n">
-        <v>369468.7964389281</v>
+        <v>369468.7964389279</v>
       </c>
       <c r="M2" t="n">
         <v>369468.7964389274</v>
       </c>
       <c r="N2" t="n">
-        <v>369468.7964389273</v>
+        <v>369468.7964389274</v>
       </c>
       <c r="O2" t="n">
         <v>369468.7964389272</v>
       </c>
       <c r="P2" t="n">
-        <v>369468.7964389274</v>
+        <v>369468.7964389272</v>
       </c>
     </row>
     <row r="3">
@@ -26369,31 +26369,31 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>16642.08507315348</v>
+        <v>16642.08507315425</v>
       </c>
       <c r="E3" t="n">
-        <v>1117687.589588136</v>
+        <v>1117687.589588135</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>5.145141455743993e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>68616.28097589733</v>
+        <v>68616.28097589742</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>11245.75456273514</v>
+        <v>11245.754562735</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>68616.28097589724</v>
+        <v>68616.28097589743</v>
       </c>
       <c r="M3" t="n">
         <v>206008.9941829029</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.094354047381785e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,28 +26421,28 @@
         <v>467615.9599317312</v>
       </c>
       <c r="D4" t="n">
-        <v>460842.8736226521</v>
+        <v>460842.8736226519</v>
       </c>
       <c r="E4" t="n">
-        <v>27909.857404732</v>
+        <v>27909.85740473177</v>
       </c>
       <c r="F4" t="n">
-        <v>27909.85740473195</v>
+        <v>27909.85740473183</v>
       </c>
       <c r="G4" t="n">
-        <v>93774.13782657703</v>
+        <v>93774.137826577</v>
       </c>
       <c r="H4" t="n">
-        <v>93774.13782657703</v>
+        <v>93774.137826577</v>
       </c>
       <c r="I4" t="n">
         <v>93774.137826577</v>
       </c>
       <c r="J4" t="n">
-        <v>94100.04165292089</v>
+        <v>94100.04165292092</v>
       </c>
       <c r="K4" t="n">
-        <v>94100.04165292098</v>
+        <v>94100.04165292083</v>
       </c>
       <c r="L4" t="n">
         <v>94100.04165292089</v>
@@ -26451,10 +26451,10 @@
         <v>93774.13782657702</v>
       </c>
       <c r="N4" t="n">
-        <v>93774.13782657697</v>
+        <v>93774.137826577</v>
       </c>
       <c r="O4" t="n">
-        <v>93774.137826577</v>
+        <v>93774.13782657703</v>
       </c>
       <c r="P4" t="n">
         <v>93774.137826577</v>
@@ -26473,7 +26473,7 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>34051.22391856596</v>
+        <v>34051.22391856598</v>
       </c>
       <c r="E5" t="n">
         <v>75307.96964954646</v>
@@ -26482,31 +26482,31 @@
         <v>75307.96964954646</v>
       </c>
       <c r="G5" t="n">
-        <v>82518.59730624984</v>
+        <v>82518.59730624987</v>
       </c>
       <c r="H5" t="n">
-        <v>82518.59730624984</v>
+        <v>82518.59730624987</v>
       </c>
       <c r="I5" t="n">
         <v>82518.59730624987</v>
       </c>
       <c r="J5" t="n">
-        <v>84130.22087213919</v>
+        <v>84130.22087213918</v>
       </c>
       <c r="K5" t="n">
-        <v>84130.22087213921</v>
+        <v>84130.22087213918</v>
       </c>
       <c r="L5" t="n">
-        <v>84130.22087213919</v>
+        <v>84130.22087213918</v>
       </c>
       <c r="M5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624987</v>
       </c>
       <c r="N5" t="n">
-        <v>82518.59730624984</v>
+        <v>82518.59730624987</v>
       </c>
       <c r="O5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624987</v>
       </c>
       <c r="P5" t="n">
         <v>82518.59730624985</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-132569.2075090639</v>
+        <v>-132573.6210869321</v>
       </c>
       <c r="C6" t="n">
-        <v>-132569.2075090641</v>
+        <v>-132573.6210869321</v>
       </c>
       <c r="D6" t="n">
-        <v>-142859.0319419671</v>
+        <v>-142863.429974004</v>
       </c>
       <c r="E6" t="n">
-        <v>-904538.7177430259</v>
+        <v>-904833.7293960226</v>
       </c>
       <c r="F6" t="n">
-        <v>213148.8718451105</v>
+        <v>212853.860192113</v>
       </c>
       <c r="G6" t="n">
         <v>124559.7803302031</v>
       </c>
       <c r="H6" t="n">
-        <v>193176.0613061005</v>
+        <v>193176.0613061004</v>
       </c>
       <c r="I6" t="n">
         <v>193176.0613061006</v>
       </c>
       <c r="J6" t="n">
-        <v>179992.7793511325</v>
+        <v>179992.7793511327</v>
       </c>
       <c r="K6" t="n">
-        <v>191238.5339138675</v>
+        <v>191238.5339138679</v>
       </c>
       <c r="L6" t="n">
-        <v>122622.2529379708</v>
+        <v>122622.2529379704</v>
       </c>
       <c r="M6" t="n">
-        <v>-12832.9328768024</v>
+        <v>-12832.93287680244</v>
       </c>
       <c r="N6" t="n">
         <v>193176.0613061005</v>
       </c>
       <c r="O6" t="n">
-        <v>193176.0613061002</v>
+        <v>193176.0613061004</v>
       </c>
       <c r="P6" t="n">
-        <v>193176.0613061006</v>
+        <v>193176.0613061004</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>11.91436900823335</v>
+        <v>11.91436900823312</v>
       </c>
       <c r="F2" t="n">
-        <v>11.91436900823329</v>
+        <v>11.91436900823319</v>
       </c>
       <c r="G2" t="n">
         <v>97.68472022810495</v>
@@ -26707,25 +26707,25 @@
         <v>97.68472022810495</v>
       </c>
       <c r="J2" t="n">
-        <v>85.77035121987167</v>
+        <v>85.77035121987183</v>
       </c>
       <c r="K2" t="n">
-        <v>85.77035121987174</v>
+        <v>85.77035121987177</v>
       </c>
       <c r="L2" t="n">
-        <v>85.77035121987164</v>
+        <v>85.77035121987178</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="O2" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="P2" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>19.43228984247511</v>
+        <v>19.43228984247601</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26762,7 +26762,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="K3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="L3" t="n">
         <v>1089.776700593298</v>
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="I4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="J4" t="n">
-        <v>874.3825845806233</v>
+        <v>874.382584580623</v>
       </c>
       <c r="K4" t="n">
-        <v>874.3825845806234</v>
+        <v>874.382584580623</v>
       </c>
       <c r="L4" t="n">
-        <v>874.3825845806234</v>
+        <v>874.382584580623</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="O4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>11.91436900823335</v>
+        <v>11.91436900823312</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>85.77035121987166</v>
+        <v>85.77035121987177</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,16 +26929,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>85.77035121987156</v>
+        <v>85.77035121987178</v>
       </c>
       <c r="M2" t="n">
-        <v>11.91436900823338</v>
+        <v>11.91436900823317</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>19.43228984247511</v>
+        <v>19.43228984247601</v>
       </c>
       <c r="E3" t="n">
-        <v>1070.344410750823</v>
+        <v>1070.344410750822</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>42.98112917833043</v>
+        <v>42.98112917833009</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>788.4203262239619</v>
+        <v>788.4203262239627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.91436900823335</v>
+        <v>11.91436900823312</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>85.77035121987166</v>
+        <v>85.77035121987177</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27871,37 +27871,37 @@
         <v>338.6747581425038</v>
       </c>
       <c r="I8" t="n">
-        <v>207.4641775939154</v>
+        <v>207.4641775939152</v>
       </c>
       <c r="J8" t="n">
-        <v>174.4155877024942</v>
+        <v>174.4155877024939</v>
       </c>
       <c r="K8" t="n">
-        <v>210.1527248578459</v>
+        <v>210.1527248578454</v>
       </c>
       <c r="L8" t="n">
-        <v>223.4385312340419</v>
+        <v>223.4385312340414</v>
       </c>
       <c r="M8" t="n">
-        <v>216.629087242137</v>
+        <v>216.6290872421364</v>
       </c>
       <c r="N8" t="n">
-        <v>215.4739598485811</v>
+        <v>215.4739598485805</v>
       </c>
       <c r="O8" t="n">
-        <v>216.9359110188874</v>
+        <v>216.9359110188868</v>
       </c>
       <c r="P8" t="n">
-        <v>219.9992768820626</v>
+        <v>219.9992768820621</v>
       </c>
       <c r="Q8" t="n">
-        <v>213.8696348403728</v>
+        <v>213.8696348403724</v>
       </c>
       <c r="R8" t="n">
-        <v>210.6783475555698</v>
+        <v>210.6783475555696</v>
       </c>
       <c r="S8" t="n">
-        <v>207.2399155971583</v>
+        <v>207.2399155971582</v>
       </c>
       <c r="T8" t="n">
         <v>222.7538803227829</v>
@@ -27950,34 +27950,34 @@
         <v>111.8317659135424</v>
       </c>
       <c r="I9" t="n">
-        <v>98.08329061072236</v>
+        <v>98.08329061072229</v>
       </c>
       <c r="J9" t="n">
-        <v>122.8886553883954</v>
+        <v>122.8886553883952</v>
       </c>
       <c r="K9" t="n">
-        <v>131.0920180769023</v>
+        <v>131.092018076902</v>
       </c>
       <c r="L9" t="n">
-        <v>129.478950452971</v>
+        <v>129.4789504529707</v>
       </c>
       <c r="M9" t="n">
-        <v>131.5434359578694</v>
+        <v>131.5434359578689</v>
       </c>
       <c r="N9" t="n">
-        <v>120.4708125043811</v>
+        <v>120.4708125043806</v>
       </c>
       <c r="O9" t="n">
-        <v>132.6514951323242</v>
+        <v>132.6514951323237</v>
       </c>
       <c r="P9" t="n">
-        <v>125.9928693467672</v>
+        <v>125.9928693467668</v>
       </c>
       <c r="Q9" t="n">
-        <v>134.6463272598385</v>
+        <v>134.6463272598383</v>
       </c>
       <c r="R9" t="n">
-        <v>143.0843766525481</v>
+        <v>143.084376652548</v>
       </c>
       <c r="S9" t="n">
         <v>170.9067961275842</v>
@@ -28032,31 +28032,31 @@
         <v>154.3966714059647</v>
       </c>
       <c r="J10" t="n">
-        <v>124.5179637655448</v>
+        <v>124.5179637655447</v>
       </c>
       <c r="K10" t="n">
-        <v>124.9420341674726</v>
+        <v>124.9420341674724</v>
       </c>
       <c r="L10" t="n">
-        <v>129.6749112306836</v>
+        <v>129.6749112306833</v>
       </c>
       <c r="M10" t="n">
-        <v>133.4328171647559</v>
+        <v>133.4328171647556</v>
       </c>
       <c r="N10" t="n">
-        <v>122.3231881550957</v>
+        <v>122.3231881550955</v>
       </c>
       <c r="O10" t="n">
-        <v>133.5035344769116</v>
+        <v>133.5035344769114</v>
       </c>
       <c r="P10" t="n">
-        <v>133.4898534907167</v>
+        <v>133.4898534907165</v>
       </c>
       <c r="Q10" t="n">
-        <v>148.5707258632321</v>
+        <v>148.570725863232</v>
       </c>
       <c r="R10" t="n">
-        <v>175.7177830892862</v>
+        <v>175.7177830892861</v>
       </c>
       <c r="S10" t="n">
         <v>223.4059144365128</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>11.91436900823335</v>
+        <v>11.91436900823312</v>
       </c>
       <c r="C11" t="n">
-        <v>11.91436900823335</v>
+        <v>11.91436900823312</v>
       </c>
       <c r="D11" t="n">
-        <v>11.91436900823335</v>
+        <v>11.91436900823312</v>
       </c>
       <c r="E11" t="n">
-        <v>11.91436900823335</v>
+        <v>11.91436900823312</v>
       </c>
       <c r="F11" t="n">
-        <v>11.91436900823335</v>
+        <v>11.91436900823312</v>
       </c>
       <c r="G11" t="n">
-        <v>11.91436900823335</v>
+        <v>11.91436900823312</v>
       </c>
       <c r="H11" t="n">
-        <v>11.91436900823335</v>
+        <v>11.91436900823312</v>
       </c>
       <c r="I11" t="n">
-        <v>11.91436900823335</v>
+        <v>11.91436900823312</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>11.91436900823335</v>
+        <v>11.91436900823312</v>
       </c>
       <c r="T11" t="n">
-        <v>11.91436900823335</v>
+        <v>11.91436900823312</v>
       </c>
       <c r="U11" t="n">
-        <v>11.91436900823335</v>
+        <v>11.91436900823312</v>
       </c>
       <c r="V11" t="n">
-        <v>11.91436900823335</v>
+        <v>11.91436900823312</v>
       </c>
       <c r="W11" t="n">
-        <v>11.91436900823335</v>
+        <v>11.91436900823312</v>
       </c>
       <c r="X11" t="n">
-        <v>11.91436900823335</v>
+        <v>11.91436900823312</v>
       </c>
       <c r="Y11" t="n">
-        <v>11.91436900823335</v>
+        <v>11.91436900823312</v>
       </c>
     </row>
     <row r="12">
@@ -28187,7 +28187,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>2.025046796916286e-13</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28223,7 +28223,7 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>11.91436900823335</v>
+        <v>11.91436900823312</v>
       </c>
       <c r="C13" t="n">
-        <v>11.91436900823335</v>
+        <v>11.91436900823312</v>
       </c>
       <c r="D13" t="n">
-        <v>11.91436900823335</v>
+        <v>11.91436900823312</v>
       </c>
       <c r="E13" t="n">
-        <v>11.91436900823335</v>
+        <v>11.91436900823312</v>
       </c>
       <c r="F13" t="n">
-        <v>11.91436900823335</v>
+        <v>11.91436900823312</v>
       </c>
       <c r="G13" t="n">
-        <v>11.91436900823335</v>
+        <v>11.91436900823312</v>
       </c>
       <c r="H13" t="n">
-        <v>11.91436900823335</v>
+        <v>11.91436900823312</v>
       </c>
       <c r="I13" t="n">
-        <v>11.91436900823335</v>
+        <v>11.91436900823312</v>
       </c>
       <c r="J13" t="n">
-        <v>11.91436900823335</v>
+        <v>11.91436900823312</v>
       </c>
       <c r="K13" t="n">
-        <v>11.91436900823335</v>
+        <v>11.91436900823312</v>
       </c>
       <c r="L13" t="n">
-        <v>11.91436900823335</v>
+        <v>11.91436900823312</v>
       </c>
       <c r="M13" t="n">
-        <v>11.91436900823335</v>
+        <v>11.91436900823312</v>
       </c>
       <c r="N13" t="n">
-        <v>11.91436900823335</v>
+        <v>11.91436900823312</v>
       </c>
       <c r="O13" t="n">
-        <v>11.91436900823335</v>
+        <v>11.91436900823312</v>
       </c>
       <c r="P13" t="n">
-        <v>11.91436900823335</v>
+        <v>11.91436900823312</v>
       </c>
       <c r="Q13" t="n">
-        <v>11.91436900823335</v>
+        <v>11.91436900823312</v>
       </c>
       <c r="R13" t="n">
-        <v>11.91436900823335</v>
+        <v>11.91436900823312</v>
       </c>
       <c r="S13" t="n">
-        <v>11.91436900823335</v>
+        <v>11.91436900823312</v>
       </c>
       <c r="T13" t="n">
-        <v>11.91436900823335</v>
+        <v>11.91436900823312</v>
       </c>
       <c r="U13" t="n">
-        <v>11.91436900823335</v>
+        <v>11.91436900823312</v>
       </c>
       <c r="V13" t="n">
-        <v>11.91436900823335</v>
+        <v>11.91436900823312</v>
       </c>
       <c r="W13" t="n">
-        <v>11.91436900823335</v>
+        <v>11.91436900823312</v>
       </c>
       <c r="X13" t="n">
-        <v>11.91436900823335</v>
+        <v>11.91436900823312</v>
       </c>
       <c r="Y13" t="n">
-        <v>11.91436900823335</v>
+        <v>11.91436900823312</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>11.91436900823329</v>
+        <v>11.91436900823319</v>
       </c>
       <c r="C14" t="n">
-        <v>11.91436900823329</v>
+        <v>11.91436900823319</v>
       </c>
       <c r="D14" t="n">
-        <v>11.91436900823329</v>
+        <v>11.91436900823319</v>
       </c>
       <c r="E14" t="n">
-        <v>11.91436900823329</v>
+        <v>11.91436900823319</v>
       </c>
       <c r="F14" t="n">
-        <v>11.91436900823329</v>
+        <v>11.91436900823319</v>
       </c>
       <c r="G14" t="n">
-        <v>11.91436900823329</v>
+        <v>11.91436900823319</v>
       </c>
       <c r="H14" t="n">
-        <v>11.91436900823329</v>
+        <v>11.91436900823319</v>
       </c>
       <c r="I14" t="n">
-        <v>11.91436900823329</v>
+        <v>11.91436900823319</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>11.91436900823329</v>
+        <v>11.91436900823319</v>
       </c>
       <c r="T14" t="n">
-        <v>11.91436900823329</v>
+        <v>11.91436900823319</v>
       </c>
       <c r="U14" t="n">
-        <v>11.91436900823329</v>
+        <v>11.91436900823319</v>
       </c>
       <c r="V14" t="n">
-        <v>11.91436900823329</v>
+        <v>11.91436900823319</v>
       </c>
       <c r="W14" t="n">
-        <v>11.91436900823329</v>
+        <v>11.91436900823319</v>
       </c>
       <c r="X14" t="n">
-        <v>11.91436900823329</v>
+        <v>11.91436900823319</v>
       </c>
       <c r="Y14" t="n">
-        <v>11.91436900823329</v>
+        <v>11.91436900823319</v>
       </c>
     </row>
     <row r="15">
@@ -28424,7 +28424,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.147526518252562e-12</v>
+        <v>2.025046796916286e-13</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>11.91436900823329</v>
+        <v>11.91436900823319</v>
       </c>
       <c r="C16" t="n">
-        <v>11.91436900823329</v>
+        <v>11.91436900823319</v>
       </c>
       <c r="D16" t="n">
-        <v>11.91436900823329</v>
+        <v>11.91436900823319</v>
       </c>
       <c r="E16" t="n">
-        <v>11.91436900823329</v>
+        <v>11.91436900823319</v>
       </c>
       <c r="F16" t="n">
-        <v>11.91436900823329</v>
+        <v>11.91436900823319</v>
       </c>
       <c r="G16" t="n">
-        <v>11.91436900823329</v>
+        <v>11.91436900823319</v>
       </c>
       <c r="H16" t="n">
-        <v>11.91436900823329</v>
+        <v>11.91436900823319</v>
       </c>
       <c r="I16" t="n">
-        <v>11.91436900823329</v>
+        <v>11.91436900823319</v>
       </c>
       <c r="J16" t="n">
-        <v>11.91436900823329</v>
+        <v>11.91436900823319</v>
       </c>
       <c r="K16" t="n">
-        <v>11.91436900823329</v>
+        <v>11.91436900823319</v>
       </c>
       <c r="L16" t="n">
-        <v>11.91436900823329</v>
+        <v>11.91436900823319</v>
       </c>
       <c r="M16" t="n">
-        <v>11.91436900823329</v>
+        <v>11.91436900823319</v>
       </c>
       <c r="N16" t="n">
-        <v>11.91436900823329</v>
+        <v>11.91436900823319</v>
       </c>
       <c r="O16" t="n">
-        <v>11.91436900823329</v>
+        <v>11.91436900823319</v>
       </c>
       <c r="P16" t="n">
-        <v>11.91436900823329</v>
+        <v>11.91436900823319</v>
       </c>
       <c r="Q16" t="n">
-        <v>11.91436900823329</v>
+        <v>11.91436900823319</v>
       </c>
       <c r="R16" t="n">
-        <v>11.91436900823329</v>
+        <v>11.91436900823319</v>
       </c>
       <c r="S16" t="n">
-        <v>11.91436900823329</v>
+        <v>11.91436900823319</v>
       </c>
       <c r="T16" t="n">
-        <v>11.91436900823329</v>
+        <v>11.91436900823319</v>
       </c>
       <c r="U16" t="n">
-        <v>11.91436900823329</v>
+        <v>11.91436900823319</v>
       </c>
       <c r="V16" t="n">
-        <v>11.91436900823329</v>
+        <v>11.91436900823319</v>
       </c>
       <c r="W16" t="n">
-        <v>11.91436900823329</v>
+        <v>11.91436900823319</v>
       </c>
       <c r="X16" t="n">
-        <v>11.91436900823329</v>
+        <v>11.91436900823319</v>
       </c>
       <c r="Y16" t="n">
-        <v>11.91436900823329</v>
+        <v>11.91436900823319</v>
       </c>
     </row>
     <row r="17">
@@ -28582,7 +28582,7 @@
         <v>97.68472022810495</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28658,10 +28658,10 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="I18" t="n">
-        <v>1.147526518252562e-12</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28740,13 +28740,13 @@
         <v>97.68472022810495</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="K19" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>97.68472022810495</v>
@@ -28764,10 +28764,10 @@
         <v>97.68472022810495</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.41330088048502</v>
+        <v>77.66073332242696</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="S19" t="n">
         <v>97.68472022810495</v>
@@ -28819,7 +28819,7 @@
         <v>97.68472022810495</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28889,7 +28889,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -28898,7 +28898,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>2.025046796916286e-13</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28983,19 +28983,19 @@
         <v>97.68472022810495</v>
       </c>
       <c r="K22" t="n">
+        <v>76.32843350416033</v>
+      </c>
+      <c r="L22" t="n">
         <v>97.68472022810495</v>
       </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="N22" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>76.32843350416053</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>97.68472022810495</v>
@@ -29123,7 +29123,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -29135,7 +29135,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29217,10 +29217,10 @@
         <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="K25" t="n">
-        <v>97.68472022810495</v>
+        <v>77.66073332242706</v>
       </c>
       <c r="L25" t="n">
         <v>97.68472022810495</v>
@@ -29229,7 +29229,7 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>86.41330088048454</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
         <v>97.68472022810495</v>
@@ -29241,7 +29241,7 @@
         <v>97.68472022810495</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="S25" t="n">
         <v>97.68472022810495</v>
@@ -29272,31 +29272,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>85.77035121987167</v>
+        <v>85.77035121987183</v>
       </c>
       <c r="C26" t="n">
-        <v>85.77035121987167</v>
+        <v>85.77035121987183</v>
       </c>
       <c r="D26" t="n">
-        <v>85.77035121987167</v>
+        <v>85.77035121987183</v>
       </c>
       <c r="E26" t="n">
-        <v>85.77035121987167</v>
+        <v>85.77035121987183</v>
       </c>
       <c r="F26" t="n">
-        <v>85.77035121987167</v>
+        <v>85.77035121987183</v>
       </c>
       <c r="G26" t="n">
-        <v>85.77035121987167</v>
+        <v>85.77035121987183</v>
       </c>
       <c r="H26" t="n">
-        <v>85.77035121987167</v>
+        <v>85.77035121987183</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
-        <v>84.41755421351792</v>
+        <v>84.41755421351655</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -29305,7 +29305,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>85.77035121987167</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -29320,28 +29320,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>85.77035121987183</v>
       </c>
       <c r="S26" t="n">
-        <v>85.77035121987167</v>
+        <v>85.77035121987183</v>
       </c>
       <c r="T26" t="n">
-        <v>85.77035121987167</v>
+        <v>85.77035121987183</v>
       </c>
       <c r="U26" t="n">
-        <v>85.77035121987167</v>
+        <v>85.77035121987183</v>
       </c>
       <c r="V26" t="n">
-        <v>85.77035121987167</v>
+        <v>85.77035121987183</v>
       </c>
       <c r="W26" t="n">
-        <v>85.77035121987167</v>
+        <v>85.77035121987183</v>
       </c>
       <c r="X26" t="n">
-        <v>85.77035121987167</v>
+        <v>85.77035121987183</v>
       </c>
       <c r="Y26" t="n">
-        <v>85.77035121987167</v>
+        <v>85.77035121987183</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>85.77035121987167</v>
+        <v>85.77035121987183</v>
       </c>
       <c r="C28" t="n">
-        <v>85.77035121987167</v>
+        <v>85.77035121987183</v>
       </c>
       <c r="D28" t="n">
-        <v>85.77035121987167</v>
+        <v>85.77035121987183</v>
       </c>
       <c r="E28" t="n">
-        <v>85.77035121987167</v>
+        <v>85.77035121987183</v>
       </c>
       <c r="F28" t="n">
-        <v>85.77035121987167</v>
+        <v>85.77035121987183</v>
       </c>
       <c r="G28" t="n">
-        <v>85.77035121987167</v>
+        <v>85.77035121987183</v>
       </c>
       <c r="H28" t="n">
-        <v>85.77035121987167</v>
+        <v>85.77035121987183</v>
       </c>
       <c r="I28" t="n">
-        <v>85.77035121987167</v>
+        <v>85.77035121987183</v>
       </c>
       <c r="J28" t="n">
-        <v>85.77035121987167</v>
+        <v>85.77035121987183</v>
       </c>
       <c r="K28" t="n">
-        <v>85.77035121987167</v>
+        <v>85.77035121987183</v>
       </c>
       <c r="L28" t="n">
-        <v>85.77035121987167</v>
+        <v>85.77035121987183</v>
       </c>
       <c r="M28" t="n">
-        <v>85.77035121987167</v>
+        <v>85.77035121987183</v>
       </c>
       <c r="N28" t="n">
-        <v>85.77035121987167</v>
+        <v>85.77035121987183</v>
       </c>
       <c r="O28" t="n">
-        <v>85.77035121987167</v>
+        <v>85.77035121987183</v>
       </c>
       <c r="P28" t="n">
-        <v>85.77035121987167</v>
+        <v>85.77035121987183</v>
       </c>
       <c r="Q28" t="n">
-        <v>85.77035121987167</v>
+        <v>85.77035121987183</v>
       </c>
       <c r="R28" t="n">
-        <v>85.77035121987167</v>
+        <v>85.77035121987183</v>
       </c>
       <c r="S28" t="n">
-        <v>85.77035121987167</v>
+        <v>85.77035121987183</v>
       </c>
       <c r="T28" t="n">
-        <v>85.77035121987167</v>
+        <v>85.77035121987183</v>
       </c>
       <c r="U28" t="n">
-        <v>85.77035121987167</v>
+        <v>85.77035121987183</v>
       </c>
       <c r="V28" t="n">
-        <v>85.77035121987167</v>
+        <v>85.77035121987183</v>
       </c>
       <c r="W28" t="n">
-        <v>85.77035121987167</v>
+        <v>85.77035121987183</v>
       </c>
       <c r="X28" t="n">
-        <v>85.77035121987167</v>
+        <v>85.77035121987183</v>
       </c>
       <c r="Y28" t="n">
-        <v>85.77035121987167</v>
+        <v>85.77035121987183</v>
       </c>
     </row>
     <row r="29">
@@ -29509,37 +29509,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>85.77035121987174</v>
+        <v>85.77035121987177</v>
       </c>
       <c r="C29" t="n">
-        <v>85.77035121987174</v>
+        <v>85.77035121987177</v>
       </c>
       <c r="D29" t="n">
-        <v>85.77035121987174</v>
+        <v>85.77035121987177</v>
       </c>
       <c r="E29" t="n">
-        <v>85.77035121987174</v>
+        <v>85.77035121987177</v>
       </c>
       <c r="F29" t="n">
-        <v>85.77035121987174</v>
+        <v>85.77035121987177</v>
       </c>
       <c r="G29" t="n">
-        <v>85.77035121987174</v>
+        <v>85.77035121987177</v>
       </c>
       <c r="H29" t="n">
-        <v>85.77035121987174</v>
+        <v>85.77035121987177</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>85.77035121987174</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>84.41755421351564</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -29551,34 +29551,34 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>84.41755421351837</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>85.77035121987177</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>85.77035121987174</v>
+        <v>85.77035121987177</v>
       </c>
       <c r="T29" t="n">
-        <v>85.77035121987174</v>
+        <v>85.77035121987177</v>
       </c>
       <c r="U29" t="n">
-        <v>85.77035121987174</v>
+        <v>85.77035121987177</v>
       </c>
       <c r="V29" t="n">
-        <v>85.77035121987174</v>
+        <v>85.77035121987177</v>
       </c>
       <c r="W29" t="n">
-        <v>85.77035121987174</v>
+        <v>85.77035121987177</v>
       </c>
       <c r="X29" t="n">
-        <v>85.77035121987174</v>
+        <v>85.77035121987177</v>
       </c>
       <c r="Y29" t="n">
-        <v>85.77035121987174</v>
+        <v>85.77035121987177</v>
       </c>
     </row>
     <row r="30">
@@ -29597,7 +29597,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>85.77035121987174</v>
+        <v>85.77035121987177</v>
       </c>
       <c r="C31" t="n">
-        <v>85.77035121987174</v>
+        <v>85.77035121987177</v>
       </c>
       <c r="D31" t="n">
-        <v>85.77035121987174</v>
+        <v>85.77035121987177</v>
       </c>
       <c r="E31" t="n">
-        <v>85.77035121987174</v>
+        <v>85.77035121987177</v>
       </c>
       <c r="F31" t="n">
-        <v>85.77035121987174</v>
+        <v>85.77035121987177</v>
       </c>
       <c r="G31" t="n">
-        <v>85.77035121987174</v>
+        <v>85.77035121987177</v>
       </c>
       <c r="H31" t="n">
-        <v>85.77035121987174</v>
+        <v>85.77035121987177</v>
       </c>
       <c r="I31" t="n">
-        <v>85.77035121987174</v>
+        <v>85.77035121987177</v>
       </c>
       <c r="J31" t="n">
-        <v>85.77035121987174</v>
+        <v>85.77035121987177</v>
       </c>
       <c r="K31" t="n">
-        <v>85.77035121987174</v>
+        <v>85.77035121987177</v>
       </c>
       <c r="L31" t="n">
-        <v>85.77035121987174</v>
+        <v>85.77035121987177</v>
       </c>
       <c r="M31" t="n">
-        <v>85.77035121987174</v>
+        <v>85.77035121987177</v>
       </c>
       <c r="N31" t="n">
-        <v>85.77035121987174</v>
+        <v>85.77035121987177</v>
       </c>
       <c r="O31" t="n">
-        <v>85.77035121987174</v>
+        <v>85.77035121987177</v>
       </c>
       <c r="P31" t="n">
-        <v>85.77035121987174</v>
+        <v>85.77035121987177</v>
       </c>
       <c r="Q31" t="n">
-        <v>85.77035121987174</v>
+        <v>85.77035121987177</v>
       </c>
       <c r="R31" t="n">
-        <v>85.77035121987174</v>
+        <v>85.77035121987177</v>
       </c>
       <c r="S31" t="n">
-        <v>85.77035121987174</v>
+        <v>85.77035121987177</v>
       </c>
       <c r="T31" t="n">
-        <v>85.77035121987174</v>
+        <v>85.77035121987177</v>
       </c>
       <c r="U31" t="n">
-        <v>85.77035121987174</v>
+        <v>85.77035121987177</v>
       </c>
       <c r="V31" t="n">
-        <v>85.77035121987174</v>
+        <v>85.77035121987177</v>
       </c>
       <c r="W31" t="n">
-        <v>85.77035121987174</v>
+        <v>85.77035121987177</v>
       </c>
       <c r="X31" t="n">
-        <v>85.77035121987174</v>
+        <v>85.77035121987177</v>
       </c>
       <c r="Y31" t="n">
-        <v>85.77035121987174</v>
+        <v>85.77035121987177</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>85.77035121987164</v>
+        <v>85.77035121987178</v>
       </c>
       <c r="C32" t="n">
-        <v>85.77035121987164</v>
+        <v>85.77035121987178</v>
       </c>
       <c r="D32" t="n">
-        <v>85.77035121987164</v>
+        <v>85.77035121987178</v>
       </c>
       <c r="E32" t="n">
-        <v>85.77035121987164</v>
+        <v>85.77035121987178</v>
       </c>
       <c r="F32" t="n">
-        <v>85.77035121987164</v>
+        <v>85.77035121987178</v>
       </c>
       <c r="G32" t="n">
-        <v>85.77035121987164</v>
+        <v>85.77035121987178</v>
       </c>
       <c r="H32" t="n">
-        <v>85.77035121987164</v>
+        <v>85.77035121987178</v>
       </c>
       <c r="I32" t="n">
-        <v>85.77035121987164</v>
+        <v>85.77035121987178</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29779,7 +29779,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>85.77035121987178</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -29788,34 +29788,34 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>40.22413276657301</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>40.22413276657059</v>
       </c>
       <c r="R32" t="n">
-        <v>85.77035121987164</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>85.77035121987164</v>
+        <v>85.77035121987178</v>
       </c>
       <c r="T32" t="n">
-        <v>85.77035121987164</v>
+        <v>85.77035121987178</v>
       </c>
       <c r="U32" t="n">
-        <v>85.77035121987164</v>
+        <v>85.77035121987178</v>
       </c>
       <c r="V32" t="n">
-        <v>85.77035121987164</v>
+        <v>85.77035121987178</v>
       </c>
       <c r="W32" t="n">
-        <v>85.77035121987164</v>
+        <v>85.77035121987178</v>
       </c>
       <c r="X32" t="n">
-        <v>85.77035121987164</v>
+        <v>85.77035121987178</v>
       </c>
       <c r="Y32" t="n">
-        <v>85.77035121987164</v>
+        <v>85.77035121987178</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>85.77035121987164</v>
+        <v>85.77035121987178</v>
       </c>
       <c r="C34" t="n">
-        <v>85.77035121987164</v>
+        <v>85.77035121987178</v>
       </c>
       <c r="D34" t="n">
-        <v>85.77035121987164</v>
+        <v>85.77035121987178</v>
       </c>
       <c r="E34" t="n">
-        <v>85.77035121987164</v>
+        <v>85.77035121987178</v>
       </c>
       <c r="F34" t="n">
-        <v>85.77035121987164</v>
+        <v>85.77035121987178</v>
       </c>
       <c r="G34" t="n">
-        <v>85.77035121987164</v>
+        <v>85.77035121987178</v>
       </c>
       <c r="H34" t="n">
-        <v>85.77035121987164</v>
+        <v>85.77035121987178</v>
       </c>
       <c r="I34" t="n">
-        <v>85.77035121987164</v>
+        <v>85.77035121987178</v>
       </c>
       <c r="J34" t="n">
-        <v>85.77035121987164</v>
+        <v>85.77035121987178</v>
       </c>
       <c r="K34" t="n">
-        <v>85.77035121987164</v>
+        <v>85.77035121987178</v>
       </c>
       <c r="L34" t="n">
-        <v>85.77035121987164</v>
+        <v>85.77035121987178</v>
       </c>
       <c r="M34" t="n">
-        <v>85.77035121987164</v>
+        <v>85.77035121987178</v>
       </c>
       <c r="N34" t="n">
-        <v>85.77035121987164</v>
+        <v>85.77035121987178</v>
       </c>
       <c r="O34" t="n">
-        <v>85.77035121987164</v>
+        <v>85.77035121987178</v>
       </c>
       <c r="P34" t="n">
-        <v>85.77035121987164</v>
+        <v>85.77035121987178</v>
       </c>
       <c r="Q34" t="n">
-        <v>85.77035121987164</v>
+        <v>85.77035121987178</v>
       </c>
       <c r="R34" t="n">
-        <v>85.77035121987164</v>
+        <v>85.77035121987178</v>
       </c>
       <c r="S34" t="n">
-        <v>85.77035121987164</v>
+        <v>85.77035121987178</v>
       </c>
       <c r="T34" t="n">
-        <v>85.77035121987164</v>
+        <v>85.77035121987178</v>
       </c>
       <c r="U34" t="n">
-        <v>85.77035121987164</v>
+        <v>85.77035121987178</v>
       </c>
       <c r="V34" t="n">
-        <v>85.77035121987164</v>
+        <v>85.77035121987178</v>
       </c>
       <c r="W34" t="n">
-        <v>85.77035121987164</v>
+        <v>85.77035121987178</v>
       </c>
       <c r="X34" t="n">
-        <v>85.77035121987164</v>
+        <v>85.77035121987178</v>
       </c>
       <c r="Y34" t="n">
-        <v>85.77035121987164</v>
+        <v>85.77035121987178</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="36">
@@ -30125,7 +30125,7 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I37" t="n">
-        <v>97.68472022810502</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="L37" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="P37" t="n">
-        <v>76.3284335041584</v>
+        <v>77.66073332242703</v>
       </c>
       <c r="Q37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="R37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30262,7 +30262,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>-1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810496</v>
       </c>
     </row>
     <row r="39">
@@ -30317,7 +30317,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="F40" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="G40" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="I40" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="J40" t="n">
-        <v>97.68472022810501</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="L40" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="O40" t="n">
-        <v>85.08100106221667</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>97.68472022810501</v>
+        <v>76.32843350415979</v>
       </c>
       <c r="Q40" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810496</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30502,31 +30502,31 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
     </row>
     <row r="42">
@@ -30545,7 +30545,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -30557,7 +30557,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>2.167155344068306e-13</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="C43" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="D43" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="E43" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="F43" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="G43" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="H43" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
-        <v>77.66073332242728</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="K43" t="n">
-        <v>97.68472022810494</v>
+        <v>77.66073332242661</v>
       </c>
       <c r="L43" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="M43" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="N43" t="n">
-        <v>97.68472022810494</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="R43" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="S43" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="T43" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="U43" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="V43" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="W43" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="X43" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
     </row>
     <row r="45">
@@ -30794,7 +30794,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>2.025046796916286e-13</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30842,7 +30842,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="C46" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="D46" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="E46" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="F46" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="G46" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="H46" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="I46" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>76.32843350415942</v>
       </c>
       <c r="L46" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="M46" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="N46" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="O46" t="n">
-        <v>97.68472022810494</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Q46" t="n">
-        <v>85.08100106221775</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="S46" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="T46" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="U46" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="V46" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="W46" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="X46" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.07811975816070392</v>
+        <v>0.0781197581607075</v>
       </c>
       <c r="H8" t="n">
-        <v>0.8000439732633092</v>
+        <v>0.800043973263346</v>
       </c>
       <c r="I8" t="n">
-        <v>3.011711976490541</v>
+        <v>3.011711976490679</v>
       </c>
       <c r="J8" t="n">
-        <v>6.63031682419205</v>
+        <v>6.630316824192355</v>
       </c>
       <c r="K8" t="n">
-        <v>9.937126187134648</v>
+        <v>9.937126187135105</v>
       </c>
       <c r="L8" t="n">
-        <v>12.32788373594529</v>
+        <v>12.32788373594586</v>
       </c>
       <c r="M8" t="n">
-        <v>13.71714598513571</v>
+        <v>13.71714598513634</v>
       </c>
       <c r="N8" t="n">
-        <v>13.93910374800981</v>
+        <v>13.93910374801045</v>
       </c>
       <c r="O8" t="n">
-        <v>13.16230040279931</v>
+        <v>13.16230040279992</v>
       </c>
       <c r="P8" t="n">
-        <v>11.23371887320693</v>
+        <v>11.23371887320745</v>
       </c>
       <c r="Q8" t="n">
-        <v>8.436055034076722</v>
+        <v>8.436055034077109</v>
       </c>
       <c r="R8" t="n">
-        <v>4.907190258562322</v>
+        <v>4.907190258562547</v>
       </c>
       <c r="S8" t="n">
-        <v>1.780153989087042</v>
+        <v>1.780153989087124</v>
       </c>
       <c r="T8" t="n">
-        <v>0.3419692413484816</v>
+        <v>0.3419692413484973</v>
       </c>
       <c r="U8" t="n">
-        <v>0.006249580652856313</v>
+        <v>0.006249580652856599</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0417977555102295</v>
+        <v>0.04179775551023141</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4036783229540586</v>
+        <v>0.4036783229540771</v>
       </c>
       <c r="I9" t="n">
-        <v>1.439089389277638</v>
+        <v>1.439089389277704</v>
       </c>
       <c r="J9" t="n">
-        <v>3.948971278271288</v>
+        <v>3.948971278271469</v>
       </c>
       <c r="K9" t="n">
-        <v>6.749420897456663</v>
+        <v>6.749420897456973</v>
       </c>
       <c r="L9" t="n">
-        <v>9.075429326903119</v>
+        <v>9.075429326903535</v>
       </c>
       <c r="M9" t="n">
-        <v>10.59059796414894</v>
+        <v>10.59059796414942</v>
       </c>
       <c r="N9" t="n">
-        <v>10.87089957895219</v>
+        <v>10.87089957895269</v>
       </c>
       <c r="O9" t="n">
-        <v>9.94474931212026</v>
+        <v>9.944749312120717</v>
       </c>
       <c r="P9" t="n">
-        <v>7.981538067563034</v>
+        <v>7.981538067563401</v>
       </c>
       <c r="Q9" t="n">
-        <v>5.335446826182979</v>
+        <v>5.335446826183224</v>
       </c>
       <c r="R9" t="n">
-        <v>2.595127311415828</v>
+        <v>2.595127311415948</v>
       </c>
       <c r="S9" t="n">
-        <v>0.7763749762536043</v>
+        <v>0.7763749762536399</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1684742864644776</v>
+        <v>0.1684742864644853</v>
       </c>
       <c r="U9" t="n">
-        <v>0.00274985233619931</v>
+        <v>0.002749852336199436</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03504183414216824</v>
+        <v>0.03504183414216985</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3115537617367324</v>
+        <v>0.3115537617367466</v>
       </c>
       <c r="I10" t="n">
-        <v>1.053803521293569</v>
+        <v>1.053803521293617</v>
       </c>
       <c r="J10" t="n">
-        <v>2.477457673851294</v>
+        <v>2.477457673851408</v>
       </c>
       <c r="K10" t="n">
-        <v>4.071224003062818</v>
+        <v>4.071224003063005</v>
       </c>
       <c r="L10" t="n">
-        <v>5.209765050554722</v>
+        <v>5.209765050554961</v>
       </c>
       <c r="M10" t="n">
-        <v>5.492966782849153</v>
+        <v>5.492966782849405</v>
       </c>
       <c r="N10" t="n">
-        <v>5.362356310137439</v>
+        <v>5.362356310137685</v>
       </c>
       <c r="O10" t="n">
-        <v>4.9530039749312</v>
+        <v>4.953003974931427</v>
       </c>
       <c r="P10" t="n">
-        <v>4.238150558430964</v>
+        <v>4.238150558431158</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.934275766213742</v>
+        <v>2.934275766213877</v>
       </c>
       <c r="R10" t="n">
-        <v>1.57560828788331</v>
+        <v>1.575608287883382</v>
       </c>
       <c r="S10" t="n">
-        <v>0.6106836004594226</v>
+        <v>0.6106836004594506</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1497242004256279</v>
+        <v>0.1497242004256348</v>
       </c>
       <c r="U10" t="n">
-        <v>0.001911372771390997</v>
+        <v>0.001911372771391085</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32309,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623193</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H29" t="n">
         <v>44.86703772844668</v>
@@ -33181,40 +33181,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T29" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U29" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H30" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q30" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33333,43 +33333,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K31" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L31" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P31" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q31" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U31" t="n">
         <v>0.1071911508780295</v>
@@ -33740,7 +33740,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
         <v>593.9283018233475</v>
@@ -33977,7 +33977,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
         <v>593.9283018233475</v>
@@ -34132,7 +34132,7 @@
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003814</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
         <v>691.3565293623194</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>57.49278562129957</v>
+        <v>57.49278562129935</v>
       </c>
       <c r="K13" t="n">
-        <v>217.9620285525529</v>
+        <v>217.9620285525527</v>
       </c>
       <c r="L13" t="n">
-        <v>331.6717411784314</v>
+        <v>331.6717411784313</v>
       </c>
       <c r="M13" t="n">
-        <v>359.5477484017172</v>
+        <v>359.5477484017169</v>
       </c>
       <c r="N13" t="n">
-        <v>356.7713151757734</v>
+        <v>356.7713151757732</v>
       </c>
       <c r="O13" t="n">
-        <v>314.2674992308731</v>
+        <v>314.2674992308729</v>
       </c>
       <c r="P13" t="n">
-        <v>246.8714401533438</v>
+        <v>246.8714401533435</v>
       </c>
       <c r="Q13" t="n">
-        <v>90.30860754612701</v>
+        <v>90.30860754612678</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>57.49278562129948</v>
+        <v>57.49278562129941</v>
       </c>
       <c r="K16" t="n">
         <v>217.9620285525528</v>
       </c>
       <c r="L16" t="n">
-        <v>331.6717411784314</v>
+        <v>331.6717411784313</v>
       </c>
       <c r="M16" t="n">
-        <v>359.5477484017171</v>
+        <v>359.547748401717</v>
       </c>
       <c r="N16" t="n">
-        <v>356.7713151757733</v>
+        <v>356.7713151757732</v>
       </c>
       <c r="O16" t="n">
-        <v>314.267499230873</v>
+        <v>314.2674992308729</v>
       </c>
       <c r="P16" t="n">
-        <v>246.8714401533437</v>
+        <v>246.8714401533436</v>
       </c>
       <c r="Q16" t="n">
-        <v>90.30860754612692</v>
+        <v>90.30860754612684</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>11.94217529034286</v>
+        <v>109.6268955184478</v>
       </c>
       <c r="K19" t="n">
-        <v>196.988613427772</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L19" t="n">
         <v>254.9673908567486</v>
@@ -36057,13 +36057,13 @@
         <v>139.3114638567573</v>
       </c>
       <c r="P19" t="n">
-        <v>197.6352280591742</v>
+        <v>197.6352280591743</v>
       </c>
       <c r="Q19" t="n">
-        <v>99.46458104062719</v>
+        <v>90.71201348256916</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>8.752567558057621</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923321</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36273,34 +36273,34 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1.33229981826684</v>
+        <v>1.332299818266854</v>
       </c>
       <c r="J22" t="n">
         <v>109.6268955184478</v>
       </c>
       <c r="K22" t="n">
-        <v>196.988613427772</v>
+        <v>175.6323267038274</v>
       </c>
       <c r="L22" t="n">
-        <v>157.2826706286436</v>
+        <v>254.9673908567486</v>
       </c>
       <c r="M22" t="n">
-        <v>169.1237184840381</v>
+        <v>266.8084387121431</v>
       </c>
       <c r="N22" t="n">
-        <v>270.7239495511832</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O22" t="n">
-        <v>215.6398973609178</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P22" t="n">
-        <v>197.6352280591742</v>
+        <v>197.6352280591743</v>
       </c>
       <c r="Q22" t="n">
         <v>110.7360003882471</v>
       </c>
       <c r="R22" t="n">
-        <v>8.752567558057606</v>
+        <v>8.752567558057621</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>11.94217529034289</v>
+        <v>109.6268955184478</v>
       </c>
       <c r="K25" t="n">
-        <v>196.988613427772</v>
+        <v>176.9646265220941</v>
       </c>
       <c r="L25" t="n">
         <v>254.9673908567486</v>
@@ -36525,7 +36525,7 @@
         <v>169.1237184840382</v>
       </c>
       <c r="N25" t="n">
-        <v>259.4525302035628</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O25" t="n">
         <v>236.9961840848623</v>
@@ -36537,7 +36537,7 @@
         <v>110.7360003882471</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>8.752567558057621</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>275.2045551822305</v>
+        <v>275.2045551822291</v>
       </c>
       <c r="K26" t="n">
         <v>337.1912865554005</v>
@@ -36601,7 +36601,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>624.6914670500985</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
         <v>552.3018354129115</v>
@@ -36616,7 +36616,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>145.3835497620966</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>97.71252651021456</v>
+        <v>97.71252651021472</v>
       </c>
       <c r="K28" t="n">
-        <v>185.0742444195387</v>
+        <v>185.0742444195389</v>
       </c>
       <c r="L28" t="n">
-        <v>243.0530218485154</v>
+        <v>243.0530218485155</v>
       </c>
       <c r="M28" t="n">
-        <v>254.8940697039098</v>
+        <v>254.89406970391</v>
       </c>
       <c r="N28" t="n">
-        <v>331.6945051235331</v>
+        <v>331.6945051235292</v>
       </c>
       <c r="O28" t="n">
-        <v>225.081815076629</v>
+        <v>225.0818150766291</v>
       </c>
       <c r="P28" t="n">
-        <v>185.720859050941</v>
+        <v>185.7208590509412</v>
       </c>
       <c r="Q28" t="n">
-        <v>98.82163138001387</v>
+        <v>98.82163138001403</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K29" t="n">
-        <v>422.9616377752723</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>540.0076686058479</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N29" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P29" t="n">
-        <v>483.1795404328902</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>336.5646560235914</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,25 +36908,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q30" t="n">
         <v>159.2338966127272</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>97.71252651021463</v>
+        <v>97.71252651021469</v>
       </c>
       <c r="K31" t="n">
-        <v>185.0742444195388</v>
+        <v>185.0742444195389</v>
       </c>
       <c r="L31" t="n">
-        <v>243.0530218485154</v>
+        <v>243.0530218485155</v>
       </c>
       <c r="M31" t="n">
-        <v>254.8940697039099</v>
+        <v>254.89406970391</v>
       </c>
       <c r="N31" t="n">
-        <v>258.80958054295</v>
+        <v>266.3515467457786</v>
       </c>
       <c r="O31" t="n">
         <v>225.0818150766291</v>
       </c>
       <c r="P31" t="n">
-        <v>258.6057836315225</v>
+        <v>185.7208590509412</v>
       </c>
       <c r="Q31" t="n">
-        <v>98.82163138001394</v>
+        <v>164.1645897577654</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>44.19342144694569</v>
+        <v>44.19342144694583</v>
       </c>
       <c r="J32" t="n">
         <v>190.7870009687126</v>
@@ -37075,7 +37075,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>624.6914670500985</v>
       </c>
       <c r="N32" t="n">
         <v>552.3018354129115</v>
@@ -37084,13 +37084,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>438.9861189859449</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>291.0184375702901</v>
       </c>
       <c r="R32" t="n">
-        <v>145.3835497620964</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>97.71252651021453</v>
+        <v>131.348767832938</v>
       </c>
       <c r="K34" t="n">
-        <v>185.0742444195387</v>
+        <v>185.0742444195388</v>
       </c>
       <c r="L34" t="n">
-        <v>243.0530218485154</v>
+        <v>282.3017051063724</v>
       </c>
       <c r="M34" t="n">
-        <v>262.4360359067416</v>
+        <v>254.89406970391</v>
       </c>
       <c r="N34" t="n">
-        <v>258.80958054295</v>
+        <v>258.8095805429501</v>
       </c>
       <c r="O34" t="n">
-        <v>225.081815076629</v>
+        <v>225.0818150766291</v>
       </c>
       <c r="P34" t="n">
-        <v>185.720859050941</v>
+        <v>185.7208590509411</v>
       </c>
       <c r="Q34" t="n">
-        <v>164.1645897577653</v>
+        <v>98.82163138001398</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37388,7 +37388,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
         <v>451.7942679013292</v>
@@ -37458,19 +37458,19 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1.332299818266925</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>109.6268955184479</v>
+        <v>109.6268955184478</v>
       </c>
       <c r="K37" t="n">
-        <v>99.30389319966704</v>
+        <v>196.988613427772</v>
       </c>
       <c r="L37" t="n">
-        <v>254.9673908567487</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M37" t="n">
-        <v>266.8084387121432</v>
+        <v>266.8084387121431</v>
       </c>
       <c r="N37" t="n">
         <v>173.0392293230783</v>
@@ -37479,13 +37479,13 @@
         <v>236.9961840848623</v>
       </c>
       <c r="P37" t="n">
-        <v>176.2789413352277</v>
+        <v>177.6112411534964</v>
       </c>
       <c r="Q37" t="n">
-        <v>110.7360003882472</v>
+        <v>110.7360003882471</v>
       </c>
       <c r="R37" t="n">
-        <v>8.752567558057692</v>
+        <v>8.752567558057621</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37558,7 +37558,7 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193706</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
         <v>250.7943048037195</v>
@@ -37625,7 +37625,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
         <v>451.7942679013292</v>
@@ -37695,34 +37695,34 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1.332299818266911</v>
+        <v>1.332299818266868</v>
       </c>
       <c r="J40" t="n">
-        <v>109.6268955184479</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K40" t="n">
-        <v>196.9886134277721</v>
+        <v>196.988613427772</v>
       </c>
       <c r="L40" t="n">
         <v>254.9673908567487</v>
       </c>
       <c r="M40" t="n">
-        <v>169.1237184840382</v>
+        <v>266.8084387121431</v>
       </c>
       <c r="N40" t="n">
-        <v>173.0392293230783</v>
+        <v>270.7239495511833</v>
       </c>
       <c r="O40" t="n">
-        <v>224.392464918974</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P40" t="n">
-        <v>197.6352280591743</v>
+        <v>176.2789413352291</v>
       </c>
       <c r="Q40" t="n">
         <v>110.7360003882472</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>8.752567558057635</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554008</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
         <v>455.5901143923322</v>
@@ -37798,7 +37798,7 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037199</v>
       </c>
       <c r="R41" t="n">
         <v>59.61319854222478</v>
@@ -37935,31 +37935,31 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>89.60290861277016</v>
+        <v>109.6268955184479</v>
       </c>
       <c r="K43" t="n">
-        <v>196.988613427772</v>
+        <v>176.9646265220937</v>
       </c>
       <c r="L43" t="n">
-        <v>254.9673908567486</v>
+        <v>254.9673908567487</v>
       </c>
       <c r="M43" t="n">
         <v>266.8084387121431</v>
       </c>
       <c r="N43" t="n">
-        <v>270.7239495511832</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O43" t="n">
-        <v>139.3114638567573</v>
+        <v>236.9961840848623</v>
       </c>
       <c r="P43" t="n">
         <v>99.95050783106933</v>
       </c>
       <c r="Q43" t="n">
-        <v>110.7360003882471</v>
+        <v>110.7360003882472</v>
       </c>
       <c r="R43" t="n">
-        <v>8.752567558057606</v>
+        <v>8.752567558057635</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38169,34 +38169,34 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1.33229981826684</v>
+        <v>1.332299818266868</v>
       </c>
       <c r="J46" t="n">
-        <v>11.94217529034289</v>
+        <v>109.6268955184479</v>
       </c>
       <c r="K46" t="n">
-        <v>99.30389319966704</v>
+        <v>175.6323267038265</v>
       </c>
       <c r="L46" t="n">
-        <v>254.9673908567486</v>
+        <v>254.9673908567487</v>
       </c>
       <c r="M46" t="n">
         <v>266.8084387121431</v>
       </c>
       <c r="N46" t="n">
-        <v>270.7239495511832</v>
+        <v>270.7239495511833</v>
       </c>
       <c r="O46" t="n">
-        <v>236.9961840848623</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P46" t="n">
         <v>197.6352280591743</v>
       </c>
       <c r="Q46" t="n">
-        <v>98.13228122235995</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>8.752567558057635</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
